--- a/Baza_stron.xlsx
+++ b/Baza_stron.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjanik\scripts\przetarg_v2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2DCBBB-36D8-4AB0-9C5E-FE29054F140A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{7F9213EC-3DF1-4FBE-93FE-C651B8B557EF}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="899">
   <si>
     <t>webpage district</t>
   </si>
@@ -2733,7 +2727,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2939,9 +2933,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Tekst objaśnienia" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2999,7 +2993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3051,7 +3045,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3245,18 +3239,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EC6BEB-B7B9-442F-AF8B-E6DD291FE675}">
-  <dimension ref="A1:L452"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,7 +3269,7 @@
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="11"/>
@@ -3342,8 +3336,11 @@
       <c r="L2" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -3374,8 +3371,11 @@
       <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -3408,8 +3408,11 @@
       <c r="L4" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -3442,8 +3445,11 @@
       <c r="L5" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
@@ -3468,8 +3474,11 @@
         <v>33</v>
       </c>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -3499,11 +3508,12 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="11"/>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
@@ -3536,8 +3546,11 @@
       <c r="L8" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -3570,8 +3583,11 @@
       <c r="L9" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
@@ -3604,8 +3620,11 @@
       <c r="L10" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
@@ -3630,8 +3649,11 @@
         <v>33</v>
       </c>
       <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3656,8 +3678,11 @@
         <v>33</v>
       </c>
       <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -3690,8 +3715,11 @@
       <c r="L13" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -3724,8 +3752,11 @@
       <c r="L14" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
@@ -3755,11 +3786,12 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
@@ -3789,11 +3821,12 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>52</v>
       </c>
@@ -3823,11 +3856,12 @@
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="11"/>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -3855,11 +3889,12 @@
       <c r="I18" s="2"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -3887,11 +3922,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="11"/>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
@@ -3919,11 +3955,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="11"/>
+      <c r="M20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
@@ -3951,11 +3988,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="11"/>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -3988,8 +4026,11 @@
       <c r="L22" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>73</v>
       </c>
@@ -4022,8 +4063,11 @@
       <c r="L23" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>52</v>
       </c>
@@ -4053,11 +4097,12 @@
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="11"/>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
@@ -4087,11 +4132,12 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>52</v>
       </c>
@@ -4121,11 +4167,12 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
@@ -4150,8 +4197,11 @@
         <v>33</v>
       </c>
       <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>52</v>
       </c>
@@ -4178,8 +4228,11 @@
       <c r="L28" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
@@ -4204,8 +4257,11 @@
         <v>33</v>
       </c>
       <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>23</v>
       </c>
@@ -4236,8 +4292,11 @@
       <c r="L30" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>52</v>
       </c>
@@ -4268,8 +4327,11 @@
       <c r="L31" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
@@ -4300,8 +4362,11 @@
       <c r="L32" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>52</v>
       </c>
@@ -4334,8 +4399,11 @@
       <c r="L33" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>52</v>
       </c>
@@ -4368,8 +4436,11 @@
       <c r="L34" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>52</v>
       </c>
@@ -4402,8 +4473,11 @@
       <c r="L35" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>52</v>
       </c>
@@ -4436,8 +4510,11 @@
       <c r="L36" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>52</v>
       </c>
@@ -4464,8 +4541,11 @@
         <v>123</v>
       </c>
       <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>124</v>
       </c>
@@ -4498,8 +4578,11 @@
       <c r="L38" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>124</v>
       </c>
@@ -4532,8 +4615,11 @@
       <c r="L39" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>124</v>
       </c>
@@ -4558,8 +4644,11 @@
         <v>33</v>
       </c>
       <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>124</v>
       </c>
@@ -4592,8 +4681,11 @@
       <c r="L41" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>124</v>
       </c>
@@ -4626,8 +4718,11 @@
       <c r="L42" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>124</v>
       </c>
@@ -4658,8 +4753,11 @@
       <c r="L43" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>124</v>
       </c>
@@ -4690,8 +4788,11 @@
       <c r="L44" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>124</v>
       </c>
@@ -4722,8 +4823,11 @@
       <c r="L45" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>124</v>
       </c>
@@ -4754,8 +4858,11 @@
       <c r="L46" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>124</v>
       </c>
@@ -4786,8 +4893,11 @@
       <c r="L47" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>124</v>
       </c>
@@ -4820,8 +4930,11 @@
       <c r="L48" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>124</v>
       </c>
@@ -4854,8 +4967,11 @@
       <c r="L49" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>124</v>
       </c>
@@ -4888,8 +5004,11 @@
       <c r="L50" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>124</v>
       </c>
@@ -4922,8 +5041,11 @@
       <c r="L51" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>124</v>
       </c>
@@ -4956,8 +5078,11 @@
       <c r="L52" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>124</v>
       </c>
@@ -4990,8 +5115,11 @@
       <c r="L53" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>124</v>
       </c>
@@ -5024,8 +5152,11 @@
       <c r="L54" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>124</v>
       </c>
@@ -5058,8 +5189,11 @@
       <c r="L55" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>124</v>
       </c>
@@ -5092,8 +5226,11 @@
       <c r="L56" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>124</v>
       </c>
@@ -5126,8 +5263,11 @@
       <c r="L57" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>167</v>
       </c>
@@ -5158,8 +5298,11 @@
       <c r="L58" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>167</v>
       </c>
@@ -5190,8 +5333,11 @@
       <c r="L59" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>167</v>
       </c>
@@ -5222,8 +5368,11 @@
       <c r="L60" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>167</v>
       </c>
@@ -5256,8 +5405,11 @@
       <c r="L61" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>167</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="L62" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>167</v>
       </c>
@@ -5324,8 +5479,11 @@
       <c r="L63" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>167</v>
       </c>
@@ -5358,8 +5516,11 @@
       <c r="L64" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>167</v>
       </c>
@@ -5386,8 +5547,11 @@
         <v>123</v>
       </c>
       <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>167</v>
       </c>
@@ -5414,8 +5578,11 @@
         <v>123</v>
       </c>
       <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>167</v>
       </c>
@@ -5442,8 +5609,11 @@
         <v>123</v>
       </c>
       <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>167</v>
       </c>
@@ -5470,8 +5640,11 @@
         <v>123</v>
       </c>
       <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>191</v>
       </c>
@@ -5504,8 +5677,11 @@
       <c r="L69" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>191</v>
       </c>
@@ -5538,8 +5714,11 @@
       <c r="L70" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>191</v>
       </c>
@@ -5564,8 +5743,11 @@
         <v>33</v>
       </c>
       <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>191</v>
       </c>
@@ -5598,8 +5780,11 @@
       <c r="L72" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>191</v>
       </c>
@@ -5632,8 +5817,11 @@
       <c r="L73" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>191</v>
       </c>
@@ -5666,8 +5854,11 @@
       <c r="L74" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>191</v>
       </c>
@@ -5700,8 +5891,11 @@
       <c r="L75" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>210</v>
       </c>
@@ -5732,8 +5926,11 @@
       <c r="L76" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>210</v>
       </c>
@@ -5766,8 +5963,11 @@
       <c r="L77" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>210</v>
       </c>
@@ -5800,8 +6000,11 @@
       <c r="L78" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>210</v>
       </c>
@@ -5834,8 +6037,11 @@
       <c r="L79" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>210</v>
       </c>
@@ -5866,8 +6072,11 @@
       <c r="L80" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>210</v>
       </c>
@@ -5898,8 +6107,11 @@
       <c r="L81" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>210</v>
       </c>
@@ -5924,8 +6136,11 @@
         <v>33</v>
       </c>
       <c r="L82" s="11"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>210</v>
       </c>
@@ -5956,8 +6171,11 @@
       <c r="L83" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>210</v>
       </c>
@@ -5988,8 +6206,11 @@
       <c r="L84" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>210</v>
       </c>
@@ -6022,8 +6243,11 @@
       <c r="L85" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>210</v>
       </c>
@@ -6056,8 +6280,11 @@
       <c r="L86" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>210</v>
       </c>
@@ -6090,8 +6317,11 @@
       <c r="L87" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>210</v>
       </c>
@@ -6124,8 +6354,11 @@
       <c r="L88" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>210</v>
       </c>
@@ -6150,8 +6383,11 @@
         <v>33</v>
       </c>
       <c r="L89" s="11"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>210</v>
       </c>
@@ -6182,8 +6418,11 @@
       <c r="L90" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>210</v>
       </c>
@@ -6216,8 +6455,11 @@
       <c r="L91" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>210</v>
       </c>
@@ -6250,8 +6492,11 @@
       <c r="L92" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>210</v>
       </c>
@@ -6284,8 +6529,11 @@
       <c r="L93" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>210</v>
       </c>
@@ -6318,8 +6566,11 @@
       <c r="L94" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>210</v>
       </c>
@@ -6352,8 +6603,11 @@
       <c r="L95" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>210</v>
       </c>
@@ -6386,8 +6640,11 @@
       <c r="L96" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>210</v>
       </c>
@@ -6420,8 +6677,11 @@
       <c r="L97" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>210</v>
       </c>
@@ -6454,8 +6714,11 @@
       <c r="L98" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>210</v>
       </c>
@@ -6488,8 +6751,11 @@
       <c r="L99" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>210</v>
       </c>
@@ -6522,8 +6788,11 @@
       <c r="L100" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>210</v>
       </c>
@@ -6556,8 +6825,11 @@
       <c r="L101" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>210</v>
       </c>
@@ -6590,8 +6862,11 @@
       <c r="L102" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>210</v>
       </c>
@@ -6624,8 +6899,11 @@
       <c r="L103" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>210</v>
       </c>
@@ -6658,8 +6936,11 @@
       <c r="L104" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>210</v>
       </c>
@@ -6692,8 +6973,11 @@
       <c r="L105" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>210</v>
       </c>
@@ -6726,8 +7010,11 @@
       <c r="L106" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>210</v>
       </c>
@@ -6760,8 +7047,11 @@
       <c r="L107" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>263</v>
       </c>
@@ -6794,8 +7084,11 @@
       <c r="L108" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>263</v>
       </c>
@@ -6828,8 +7121,11 @@
       <c r="L109" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>263</v>
       </c>
@@ -6854,8 +7150,11 @@
         <v>33</v>
       </c>
       <c r="L110" s="11"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>263</v>
       </c>
@@ -6880,8 +7179,11 @@
         <v>33</v>
       </c>
       <c r="L111" s="11"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>263</v>
       </c>
@@ -6914,8 +7216,11 @@
       <c r="L112" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>263</v>
       </c>
@@ -6948,8 +7253,11 @@
       <c r="L113" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>263</v>
       </c>
@@ -6982,8 +7290,11 @@
       <c r="L114" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>283</v>
       </c>
@@ -7016,8 +7327,11 @@
       <c r="L115" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>283</v>
       </c>
@@ -7050,8 +7364,11 @@
       <c r="L116" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>283</v>
       </c>
@@ -7082,8 +7399,11 @@
       <c r="L117" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>283</v>
       </c>
@@ -7114,8 +7434,11 @@
       <c r="L118" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>283</v>
       </c>
@@ -7140,8 +7463,11 @@
         <v>33</v>
       </c>
       <c r="L119" s="11"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>283</v>
       </c>
@@ -7166,8 +7492,11 @@
         <v>123</v>
       </c>
       <c r="L120" s="11"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>283</v>
       </c>
@@ -7200,8 +7529,11 @@
       <c r="L121" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>283</v>
       </c>
@@ -7234,8 +7566,11 @@
       <c r="L122" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>304</v>
       </c>
@@ -7268,8 +7603,11 @@
       <c r="L123" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>304</v>
       </c>
@@ -7302,8 +7640,11 @@
       <c r="L124" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>304</v>
       </c>
@@ -7336,8 +7677,11 @@
       <c r="L125" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>304</v>
       </c>
@@ -7370,8 +7714,11 @@
       <c r="L126" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>304</v>
       </c>
@@ -7404,8 +7751,11 @@
       <c r="L127" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>304</v>
       </c>
@@ -7438,8 +7788,11 @@
       <c r="L128" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>304</v>
       </c>
@@ -7470,8 +7823,11 @@
       <c r="L129" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>304</v>
       </c>
@@ -7504,8 +7860,11 @@
       <c r="L130" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>304</v>
       </c>
@@ -7538,8 +7897,11 @@
       <c r="L131" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>304</v>
       </c>
@@ -7572,8 +7934,11 @@
       <c r="L132" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>304</v>
       </c>
@@ -7606,8 +7971,11 @@
       <c r="L133" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>304</v>
       </c>
@@ -7640,8 +8008,11 @@
       <c r="L134" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>304</v>
       </c>
@@ -7674,8 +8045,11 @@
       <c r="L135" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>304</v>
       </c>
@@ -7708,8 +8082,11 @@
       <c r="L136" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>304</v>
       </c>
@@ -7742,8 +8119,11 @@
       <c r="L137" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>304</v>
       </c>
@@ -7776,8 +8156,11 @@
       <c r="L138" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>304</v>
       </c>
@@ -7810,8 +8193,11 @@
       <c r="L139" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>304</v>
       </c>
@@ -7844,8 +8230,11 @@
       <c r="L140" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>304</v>
       </c>
@@ -7878,8 +8267,11 @@
       <c r="L141" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>73</v>
       </c>
@@ -7912,8 +8304,11 @@
       <c r="L142" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>73</v>
       </c>
@@ -7946,8 +8341,11 @@
       <c r="L143" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>73</v>
       </c>
@@ -7980,8 +8378,11 @@
       <c r="L144" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>73</v>
       </c>
@@ -8006,8 +8407,11 @@
         <v>33</v>
       </c>
       <c r="L145" s="11"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>73</v>
       </c>
@@ -8040,8 +8444,11 @@
       <c r="L146" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>73</v>
       </c>
@@ -8074,8 +8481,11 @@
       <c r="L147" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>73</v>
       </c>
@@ -8108,8 +8518,11 @@
       <c r="L148" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>73</v>
       </c>
@@ -8136,8 +8549,11 @@
         <v>123</v>
       </c>
       <c r="L149" s="11"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>73</v>
       </c>
@@ -8162,8 +8578,11 @@
         <v>123</v>
       </c>
       <c r="L150" s="11"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>73</v>
       </c>
@@ -8196,8 +8615,11 @@
       <c r="L151" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>73</v>
       </c>
@@ -8230,8 +8652,11 @@
       <c r="L152" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>73</v>
       </c>
@@ -8262,8 +8687,11 @@
       <c r="L153" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>73</v>
       </c>
@@ -8296,8 +8724,11 @@
       <c r="L154" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>73</v>
       </c>
@@ -8330,8 +8761,11 @@
       <c r="L155" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>73</v>
       </c>
@@ -8364,8 +8798,11 @@
       <c r="L156" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>73</v>
       </c>
@@ -8390,8 +8827,11 @@
         <v>33</v>
       </c>
       <c r="L157" s="11"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>73</v>
       </c>
@@ -8424,8 +8864,11 @@
       <c r="L158" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>73</v>
       </c>
@@ -8450,8 +8893,11 @@
         <v>33</v>
       </c>
       <c r="L159" s="11"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>73</v>
       </c>
@@ -8484,8 +8930,11 @@
       <c r="L160" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>73</v>
       </c>
@@ -8510,8 +8959,11 @@
         <v>33</v>
       </c>
       <c r="L161" s="11"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>73</v>
       </c>
@@ -8544,8 +8996,11 @@
       <c r="L162" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>73</v>
       </c>
@@ -8570,8 +9025,11 @@
         <v>33</v>
       </c>
       <c r="L163" s="11"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>73</v>
       </c>
@@ -8604,8 +9062,11 @@
       <c r="L164" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>73</v>
       </c>
@@ -8638,8 +9099,11 @@
       <c r="L165" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>73</v>
       </c>
@@ -8672,8 +9136,11 @@
       <c r="L166" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>73</v>
       </c>
@@ -8706,8 +9173,11 @@
       <c r="L167" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>385</v>
       </c>
@@ -8740,8 +9210,11 @@
       <c r="L168" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>385</v>
       </c>
@@ -8774,8 +9247,11 @@
       <c r="L169" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>385</v>
       </c>
@@ -8806,8 +9282,11 @@
       <c r="L170" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>385</v>
       </c>
@@ -8840,8 +9319,11 @@
       <c r="L171" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>385</v>
       </c>
@@ -8872,8 +9354,11 @@
       <c r="L172" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>385</v>
       </c>
@@ -8904,8 +9389,11 @@
       <c r="L173" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>385</v>
       </c>
@@ -8936,8 +9424,11 @@
       <c r="L174" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>385</v>
       </c>
@@ -8962,8 +9453,11 @@
         <v>33</v>
       </c>
       <c r="L175" s="11"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>385</v>
       </c>
@@ -8992,8 +9486,11 @@
       <c r="L176" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>385</v>
       </c>
@@ -9018,8 +9515,11 @@
         <v>33</v>
       </c>
       <c r="L177" s="11"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>385</v>
       </c>
@@ -9050,8 +9550,11 @@
       <c r="L178" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>385</v>
       </c>
@@ -9080,8 +9583,11 @@
       <c r="L179" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>385</v>
       </c>
@@ -9110,8 +9616,11 @@
       <c r="L180" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>385</v>
       </c>
@@ -9136,8 +9645,11 @@
         <v>33</v>
       </c>
       <c r="L181" s="11"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>385</v>
       </c>
@@ -9162,8 +9674,11 @@
         <v>33</v>
       </c>
       <c r="L182" s="11"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>385</v>
       </c>
@@ -9194,8 +9709,11 @@
       <c r="L183" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>385</v>
       </c>
@@ -9226,8 +9744,11 @@
       <c r="L184" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>385</v>
       </c>
@@ -9258,8 +9779,11 @@
       <c r="L185" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>385</v>
       </c>
@@ -9290,8 +9814,11 @@
       <c r="L186" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>385</v>
       </c>
@@ -9322,8 +9849,11 @@
       <c r="L187" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>385</v>
       </c>
@@ -9354,8 +9884,11 @@
       <c r="L188" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>385</v>
       </c>
@@ -9380,8 +9913,11 @@
         <v>33</v>
       </c>
       <c r="L189" s="11"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>385</v>
       </c>
@@ -9414,8 +9950,11 @@
       <c r="L190" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
         <v>385</v>
       </c>
@@ -9448,8 +9987,11 @@
       <c r="L191" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>385</v>
       </c>
@@ -9474,8 +10016,11 @@
         <v>33</v>
       </c>
       <c r="L192" s="11"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>385</v>
       </c>
@@ -9500,8 +10045,11 @@
         <v>33</v>
       </c>
       <c r="L193" s="11"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>427</v>
       </c>
@@ -9534,8 +10082,11 @@
       <c r="L194" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>427</v>
       </c>
@@ -9568,8 +10119,11 @@
       <c r="L195" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>427</v>
       </c>
@@ -9602,8 +10156,11 @@
       <c r="L196" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>427</v>
       </c>
@@ -9636,8 +10193,11 @@
       <c r="L197" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>427</v>
       </c>
@@ -9670,8 +10230,11 @@
       <c r="L198" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>427</v>
       </c>
@@ -9704,8 +10267,11 @@
       <c r="L199" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>427</v>
       </c>
@@ -9738,8 +10304,11 @@
       <c r="L200" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>427</v>
       </c>
@@ -9772,8 +10341,11 @@
       <c r="L201" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>427</v>
       </c>
@@ -9806,8 +10378,11 @@
       <c r="L202" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>427</v>
       </c>
@@ -9840,8 +10415,11 @@
       <c r="L203" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>427</v>
       </c>
@@ -9866,8 +10444,11 @@
         <v>123</v>
       </c>
       <c r="L204" s="11"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>445</v>
       </c>
@@ -9898,8 +10479,11 @@
       <c r="L205" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>445</v>
       </c>
@@ -9930,8 +10514,11 @@
       <c r="L206" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
         <v>445</v>
       </c>
@@ -9962,8 +10549,11 @@
       <c r="L207" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>445</v>
       </c>
@@ -9994,8 +10584,11 @@
       <c r="L208" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>445</v>
       </c>
@@ -10026,8 +10619,11 @@
       <c r="L209" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>445</v>
       </c>
@@ -10058,8 +10654,11 @@
       <c r="L210" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>460</v>
       </c>
@@ -10090,8 +10689,11 @@
       <c r="L211" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>460</v>
       </c>
@@ -10122,8 +10724,11 @@
       <c r="L212" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>460</v>
       </c>
@@ -10154,8 +10759,11 @@
       <c r="L213" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>460</v>
       </c>
@@ -10186,8 +10794,11 @@
       <c r="L214" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>460</v>
       </c>
@@ -10218,8 +10829,11 @@
       <c r="L215" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>460</v>
       </c>
@@ -10250,8 +10864,11 @@
       <c r="L216" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>460</v>
       </c>
@@ -10284,8 +10901,11 @@
       <c r="L217" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
         <v>460</v>
       </c>
@@ -10318,8 +10938,11 @@
       <c r="L218" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>474</v>
       </c>
@@ -10352,8 +10975,11 @@
       <c r="L219" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>474</v>
       </c>
@@ -10378,8 +11004,11 @@
         <v>33</v>
       </c>
       <c r="L220" s="11"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>474</v>
       </c>
@@ -10412,8 +11041,11 @@
       <c r="L221" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>474</v>
       </c>
@@ -10446,8 +11078,11 @@
       <c r="L222" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>474</v>
       </c>
@@ -10480,8 +11115,11 @@
       <c r="L223" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>474</v>
       </c>
@@ -10514,8 +11152,11 @@
       <c r="L224" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>474</v>
       </c>
@@ -10540,8 +11181,11 @@
         <v>33</v>
       </c>
       <c r="L225" s="11"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>474</v>
       </c>
@@ -10574,8 +11218,11 @@
       <c r="L226" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>474</v>
       </c>
@@ -10606,8 +11253,11 @@
       <c r="L227" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>474</v>
       </c>
@@ -10640,8 +11290,11 @@
       <c r="L228" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>474</v>
       </c>
@@ -10674,8 +11327,11 @@
       <c r="L229" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>474</v>
       </c>
@@ -10708,8 +11364,11 @@
       <c r="L230" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
         <v>474</v>
       </c>
@@ -10742,8 +11401,11 @@
       <c r="L231" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>474</v>
       </c>
@@ -10776,8 +11438,11 @@
       <c r="L232" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>474</v>
       </c>
@@ -10802,8 +11467,11 @@
         <v>33</v>
       </c>
       <c r="L233" s="11"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>474</v>
       </c>
@@ -10836,8 +11504,11 @@
       <c r="L234" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>474</v>
       </c>
@@ -10862,8 +11533,11 @@
         <v>33</v>
       </c>
       <c r="L235" s="11"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
         <v>474</v>
       </c>
@@ -10896,8 +11570,11 @@
       <c r="L236" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
         <v>474</v>
       </c>
@@ -10930,8 +11607,11 @@
       <c r="L237" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>512</v>
       </c>
@@ -10964,8 +11644,11 @@
       <c r="L238" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>512</v>
       </c>
@@ -10998,8 +11681,11 @@
       <c r="L239" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>512</v>
       </c>
@@ -11032,8 +11718,11 @@
       <c r="L240" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>512</v>
       </c>
@@ -11066,8 +11755,11 @@
       <c r="L241" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>512</v>
       </c>
@@ -11100,8 +11792,11 @@
       <c r="L242" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>512</v>
       </c>
@@ -11126,8 +11821,11 @@
         <v>33</v>
       </c>
       <c r="L243" s="11"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>512</v>
       </c>
@@ -11158,8 +11856,11 @@
       <c r="L244" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>512</v>
       </c>
@@ -11190,8 +11891,11 @@
       <c r="L245" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>512</v>
       </c>
@@ -11222,8 +11926,11 @@
       <c r="L246" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>512</v>
       </c>
@@ -11256,8 +11963,11 @@
       <c r="L247" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
         <v>529</v>
       </c>
@@ -11282,8 +11992,11 @@
         <v>33</v>
       </c>
       <c r="L248" s="11"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
         <v>529</v>
       </c>
@@ -11308,8 +12021,11 @@
         <v>33</v>
       </c>
       <c r="L249" s="11"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
         <v>529</v>
       </c>
@@ -11334,8 +12050,11 @@
         <v>33</v>
       </c>
       <c r="L250" s="11"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
         <v>529</v>
       </c>
@@ -11364,8 +12083,11 @@
       <c r="L251" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>529</v>
       </c>
@@ -11396,8 +12118,11 @@
       <c r="L252" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>529</v>
       </c>
@@ -11428,8 +12153,11 @@
       <c r="L253" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
         <v>529</v>
       </c>
@@ -11454,8 +12182,11 @@
         <v>33</v>
       </c>
       <c r="L254" s="11"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
         <v>529</v>
       </c>
@@ -11488,8 +12219,11 @@
       <c r="L255" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
         <v>529</v>
       </c>
@@ -11522,8 +12256,11 @@
       <c r="L256" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="s">
         <v>529</v>
       </c>
@@ -11556,8 +12293,11 @@
       <c r="L257" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
         <v>529</v>
       </c>
@@ -11588,8 +12328,11 @@
       <c r="L258" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
         <v>529</v>
       </c>
@@ -11622,8 +12365,11 @@
       <c r="L259" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
         <v>529</v>
       </c>
@@ -11656,8 +12402,11 @@
       <c r="L260" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
         <v>529</v>
       </c>
@@ -11690,8 +12439,11 @@
       <c r="L261" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="s">
         <v>529</v>
       </c>
@@ -11724,8 +12476,11 @@
       <c r="L262" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="s">
         <v>529</v>
       </c>
@@ -11758,8 +12513,11 @@
       <c r="L263" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="s">
         <v>529</v>
       </c>
@@ -11792,8 +12550,11 @@
       <c r="L264" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="s">
         <v>561</v>
       </c>
@@ -11826,8 +12587,11 @@
         <v>566</v>
       </c>
       <c r="L265" s="11"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
         <v>561</v>
       </c>
@@ -11860,8 +12624,11 @@
       <c r="L266" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
         <v>561</v>
       </c>
@@ -11894,8 +12661,11 @@
       <c r="L267" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
         <v>561</v>
       </c>
@@ -11926,8 +12696,11 @@
       <c r="L268" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
         <v>561</v>
       </c>
@@ -11950,8 +12723,11 @@
         <v>33</v>
       </c>
       <c r="L269" s="11"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
         <v>561</v>
       </c>
@@ -11984,8 +12760,11 @@
       <c r="L270" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="s">
         <v>561</v>
       </c>
@@ -12018,8 +12797,11 @@
       <c r="L271" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="s">
         <v>561</v>
       </c>
@@ -12052,8 +12834,11 @@
       <c r="L272" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="s">
         <v>561</v>
       </c>
@@ -12086,8 +12871,11 @@
       <c r="L273" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
         <v>561</v>
       </c>
@@ -12120,8 +12908,11 @@
         <v>566</v>
       </c>
       <c r="L274" s="11"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
         <v>586</v>
       </c>
@@ -12152,8 +12943,11 @@
       <c r="L275" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="s">
         <v>586</v>
       </c>
@@ -12184,8 +12978,11 @@
       <c r="L276" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
         <v>586</v>
       </c>
@@ -12210,8 +13007,11 @@
         <v>33</v>
       </c>
       <c r="L277" s="11"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="s">
         <v>586</v>
       </c>
@@ -12242,8 +13042,11 @@
       <c r="L278" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
         <v>586</v>
       </c>
@@ -12276,8 +13079,11 @@
       <c r="L279" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
         <v>586</v>
       </c>
@@ -12308,8 +13114,11 @@
       <c r="L280" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
         <v>586</v>
       </c>
@@ -12340,8 +13149,11 @@
       <c r="L281" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
         <v>586</v>
       </c>
@@ -12372,8 +13184,11 @@
       <c r="L282" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="s">
         <v>586</v>
       </c>
@@ -12398,8 +13213,11 @@
         <v>33</v>
       </c>
       <c r="L283" s="11"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
         <v>586</v>
       </c>
@@ -12432,8 +13250,11 @@
       <c r="L284" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
         <v>586</v>
       </c>
@@ -12466,8 +13287,11 @@
       <c r="L285" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="s">
         <v>586</v>
       </c>
@@ -12500,8 +13324,11 @@
       <c r="L286" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="s">
         <v>586</v>
       </c>
@@ -12534,8 +13361,11 @@
       <c r="L287" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="s">
         <v>611</v>
       </c>
@@ -12568,8 +13398,11 @@
       <c r="L288" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="s">
         <v>611</v>
       </c>
@@ -12602,8 +13435,11 @@
       <c r="L289" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
         <v>611</v>
       </c>
@@ -12628,8 +13464,11 @@
         <v>33</v>
       </c>
       <c r="L290" s="11"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="s">
         <v>611</v>
       </c>
@@ -12658,8 +13497,11 @@
       <c r="L291" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="s">
         <v>611</v>
       </c>
@@ -12692,8 +13534,11 @@
       <c r="L292" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="s">
         <v>611</v>
       </c>
@@ -12718,8 +13563,11 @@
         <v>123</v>
       </c>
       <c r="L293" s="11"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="s">
         <v>611</v>
       </c>
@@ -12750,8 +13598,11 @@
       <c r="L294" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="s">
         <v>611</v>
       </c>
@@ -12782,8 +13633,11 @@
       <c r="L295" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="s">
         <v>611</v>
       </c>
@@ -12816,8 +13670,11 @@
       <c r="L296" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="s">
         <v>611</v>
       </c>
@@ -12850,8 +13707,11 @@
       <c r="L297" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="s">
         <v>611</v>
       </c>
@@ -12876,8 +13736,11 @@
         <v>123</v>
       </c>
       <c r="L298" s="11"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="s">
         <v>611</v>
       </c>
@@ -12910,8 +13773,11 @@
       <c r="L299" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="s">
         <v>611</v>
       </c>
@@ -12944,8 +13810,11 @@
       <c r="L300" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="s">
         <v>611</v>
       </c>
@@ -12978,8 +13847,11 @@
       <c r="L301" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="s">
         <v>611</v>
       </c>
@@ -13012,8 +13884,11 @@
       <c r="L302" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="s">
         <v>611</v>
       </c>
@@ -13046,8 +13921,11 @@
       <c r="L303" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="s">
         <v>611</v>
       </c>
@@ -13078,8 +13956,11 @@
       <c r="L304" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="s">
         <v>611</v>
       </c>
@@ -13110,8 +13991,11 @@
       <c r="L305" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="s">
         <v>611</v>
       </c>
@@ -13138,8 +14022,11 @@
       <c r="L306" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="s">
         <v>660</v>
       </c>
@@ -13170,8 +14057,11 @@
       <c r="L307" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="s">
         <v>660</v>
       </c>
@@ -13202,8 +14092,11 @@
       <c r="L308" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="s">
         <v>660</v>
       </c>
@@ -13234,8 +14127,11 @@
       <c r="L309" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="s">
         <v>660</v>
       </c>
@@ -13258,8 +14154,11 @@
         <v>33</v>
       </c>
       <c r="L310" s="11"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="s">
         <v>660</v>
       </c>
@@ -13290,8 +14189,11 @@
       <c r="L311" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="s">
         <v>660</v>
       </c>
@@ -13322,8 +14224,11 @@
       <c r="L312" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="s">
         <v>660</v>
       </c>
@@ -13354,8 +14259,11 @@
       <c r="L313" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="s">
         <v>660</v>
       </c>
@@ -13386,8 +14294,11 @@
       <c r="L314" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="s">
         <v>660</v>
       </c>
@@ -13418,8 +14329,11 @@
       <c r="L315" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
         <v>660</v>
       </c>
@@ -13450,8 +14364,11 @@
       <c r="L316" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="s">
         <v>660</v>
       </c>
@@ -13482,8 +14399,11 @@
       <c r="L317" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="s">
         <v>660</v>
       </c>
@@ -13514,8 +14434,11 @@
       <c r="L318" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="s">
         <v>660</v>
       </c>
@@ -13546,8 +14469,11 @@
       <c r="L319" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="s">
         <v>660</v>
       </c>
@@ -13578,8 +14504,11 @@
       <c r="L320" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="s">
         <v>660</v>
       </c>
@@ -13610,8 +14539,11 @@
       <c r="L321" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="s">
         <v>660</v>
       </c>
@@ -13644,8 +14576,11 @@
       <c r="L322" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="s">
         <v>660</v>
       </c>
@@ -13678,8 +14613,11 @@
       <c r="L323" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="s">
         <v>660</v>
       </c>
@@ -13712,8 +14650,11 @@
       <c r="L324" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="s">
         <v>660</v>
       </c>
@@ -13746,8 +14687,11 @@
       <c r="L325" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="s">
         <v>660</v>
       </c>
@@ -13778,8 +14722,11 @@
       <c r="L326" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="s">
         <v>660</v>
       </c>
@@ -13810,8 +14757,11 @@
       <c r="L327" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="s">
         <v>660</v>
       </c>
@@ -13842,8 +14792,11 @@
       <c r="L328" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="s">
         <v>660</v>
       </c>
@@ -13874,8 +14827,11 @@
       <c r="L329" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="s">
         <v>660</v>
       </c>
@@ -13906,8 +14862,11 @@
       <c r="L330" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="s">
         <v>660</v>
       </c>
@@ -13938,8 +14897,11 @@
       <c r="L331" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="s">
         <v>660</v>
       </c>
@@ -13970,8 +14932,11 @@
       <c r="L332" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="s">
         <v>660</v>
       </c>
@@ -14004,8 +14969,11 @@
       <c r="L333" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="s">
         <v>660</v>
       </c>
@@ -14038,8 +15006,11 @@
       <c r="L334" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="s">
         <v>660</v>
       </c>
@@ -14072,8 +15043,11 @@
       <c r="L335" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="s">
         <v>660</v>
       </c>
@@ -14106,8 +15080,11 @@
       <c r="L336" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="s">
         <v>660</v>
       </c>
@@ -14140,8 +15117,11 @@
       <c r="L337" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="s">
         <v>660</v>
       </c>
@@ -14174,8 +15154,11 @@
       <c r="L338" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="s">
         <v>660</v>
       </c>
@@ -14208,8 +15191,11 @@
       <c r="L339" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="s">
         <v>660</v>
       </c>
@@ -14242,8 +15228,11 @@
       <c r="L340" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="s">
         <v>660</v>
       </c>
@@ -14276,8 +15265,11 @@
       <c r="L341" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="s">
         <v>660</v>
       </c>
@@ -14310,8 +15302,11 @@
       <c r="L342" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="s">
         <v>660</v>
       </c>
@@ -14344,8 +15339,11 @@
       <c r="L343" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="s">
         <v>660</v>
       </c>
@@ -14378,8 +15376,11 @@
       <c r="L344" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="s">
         <v>660</v>
       </c>
@@ -14412,8 +15413,11 @@
       <c r="L345" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="s">
         <v>660</v>
       </c>
@@ -14446,8 +15450,11 @@
       <c r="L346" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="s">
         <v>660</v>
       </c>
@@ -14480,8 +15487,11 @@
       <c r="L347" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="s">
         <v>660</v>
       </c>
@@ -14514,8 +15524,11 @@
       <c r="L348" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="s">
         <v>660</v>
       </c>
@@ -14548,8 +15561,11 @@
       <c r="L349" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="s">
         <v>660</v>
       </c>
@@ -14582,8 +15598,11 @@
       <c r="L350" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="s">
         <v>660</v>
       </c>
@@ -14616,8 +15635,11 @@
       <c r="L351" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="s">
         <v>660</v>
       </c>
@@ -14650,8 +15672,11 @@
       <c r="L352" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="s">
         <v>660</v>
       </c>
@@ -14682,8 +15707,11 @@
       <c r="L353" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="s">
         <v>660</v>
       </c>
@@ -14714,8 +15742,11 @@
       <c r="L354" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="s">
         <v>660</v>
       </c>
@@ -14740,8 +15771,11 @@
         <v>33</v>
       </c>
       <c r="L355" s="11"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="s">
         <v>660</v>
       </c>
@@ -14766,8 +15800,11 @@
         <v>33</v>
       </c>
       <c r="L356" s="11"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="s">
         <v>660</v>
       </c>
@@ -14792,8 +15829,11 @@
         <v>33</v>
       </c>
       <c r="L357" s="11"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="s">
         <v>660</v>
       </c>
@@ -14824,8 +15864,11 @@
       <c r="L358" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
         <v>660</v>
       </c>
@@ -14858,8 +15901,11 @@
       <c r="L359" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="s">
         <v>660</v>
       </c>
@@ -14892,8 +15938,11 @@
       <c r="L360" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="s">
         <v>11</v>
       </c>
@@ -14924,8 +15973,11 @@
       <c r="L361" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
         <v>11</v>
       </c>
@@ -14956,8 +16008,11 @@
       <c r="L362" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="s">
         <v>11</v>
       </c>
@@ -14982,8 +16037,11 @@
         <v>33</v>
       </c>
       <c r="L363" s="11"/>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="s">
         <v>11</v>
       </c>
@@ -15016,8 +16074,11 @@
       <c r="L364" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="s">
         <v>11</v>
       </c>
@@ -15052,8 +16113,11 @@
       <c r="L365" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="s">
         <v>11</v>
       </c>
@@ -15078,8 +16142,11 @@
         <v>33</v>
       </c>
       <c r="L366" s="11"/>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="s">
         <v>11</v>
       </c>
@@ -15112,8 +16179,11 @@
       <c r="L367" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
         <v>11</v>
       </c>
@@ -15140,8 +16210,11 @@
         <v>745</v>
       </c>
       <c r="L368" s="11"/>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
         <v>11</v>
       </c>
@@ -15172,8 +16245,11 @@
       <c r="L369" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="s">
         <v>11</v>
       </c>
@@ -15204,8 +16280,11 @@
       <c r="L370" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="s">
         <v>11</v>
       </c>
@@ -15238,8 +16317,11 @@
       <c r="L371" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
         <v>11</v>
       </c>
@@ -15272,8 +16354,11 @@
       <c r="L372" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="s">
         <v>11</v>
       </c>
@@ -15308,8 +16393,11 @@
       <c r="L373" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="s">
         <v>11</v>
       </c>
@@ -15344,8 +16432,11 @@
       <c r="L374" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="s">
         <v>11</v>
       </c>
@@ -15380,8 +16471,11 @@
       <c r="L375" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="s">
         <v>11</v>
       </c>
@@ -15416,8 +16510,11 @@
       <c r="L376" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="s">
         <v>11</v>
       </c>
@@ -15450,8 +16547,11 @@
       <c r="L377" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="s">
         <v>11</v>
       </c>
@@ -15484,8 +16584,11 @@
       <c r="L378" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="s">
         <v>11</v>
       </c>
@@ -15518,8 +16621,11 @@
       <c r="L379" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="s">
         <v>11</v>
       </c>
@@ -15552,8 +16658,11 @@
       <c r="L380" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="s">
         <v>771</v>
       </c>
@@ -15586,8 +16695,11 @@
       <c r="L381" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="s">
         <v>771</v>
       </c>
@@ -15620,8 +16732,11 @@
       <c r="L382" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="s">
         <v>771</v>
       </c>
@@ -15654,8 +16769,11 @@
       <c r="L383" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="s">
         <v>771</v>
       </c>
@@ -15688,8 +16806,11 @@
       <c r="L384" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="s">
         <v>771</v>
       </c>
@@ -15722,8 +16843,11 @@
       <c r="L385" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="s">
         <v>771</v>
       </c>
@@ -15756,8 +16880,11 @@
       <c r="L386" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="s">
         <v>771</v>
       </c>
@@ -15790,8 +16917,11 @@
       <c r="L387" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="s">
         <v>771</v>
       </c>
@@ -15824,8 +16954,11 @@
       <c r="L388" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="s">
         <v>20</v>
       </c>
@@ -15858,8 +16991,11 @@
       <c r="L389" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="s">
         <v>20</v>
       </c>
@@ -15892,8 +17028,11 @@
       <c r="L390" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="s">
         <v>20</v>
       </c>
@@ -15920,8 +17059,11 @@
       <c r="L391" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="s">
         <v>20</v>
       </c>
@@ -15954,8 +17096,11 @@
       <c r="L392" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="s">
         <v>20</v>
       </c>
@@ -15990,8 +17135,11 @@
       <c r="L393" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="s">
         <v>20</v>
       </c>
@@ -16024,8 +17172,11 @@
       <c r="L394" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="s">
         <v>20</v>
       </c>
@@ -16050,8 +17201,11 @@
         <v>33</v>
       </c>
       <c r="L395" s="11"/>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="s">
         <v>20</v>
       </c>
@@ -16086,8 +17240,11 @@
       <c r="L396" s="11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="s">
         <v>20</v>
       </c>
@@ -16122,8 +17279,11 @@
       <c r="L397" s="11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
         <v>20</v>
       </c>
@@ -16154,8 +17314,11 @@
       <c r="J398" s="11"/>
       <c r="K398" s="11"/>
       <c r="L398" s="11"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="s">
         <v>20</v>
       </c>
@@ -16186,8 +17349,11 @@
       <c r="J399" s="11"/>
       <c r="K399" s="11"/>
       <c r="L399" s="11"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
         <v>20</v>
       </c>
@@ -16218,8 +17384,11 @@
       <c r="J400" s="11"/>
       <c r="K400" s="11"/>
       <c r="L400" s="11"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
         <v>20</v>
       </c>
@@ -16246,8 +17415,11 @@
         <v>123</v>
       </c>
       <c r="L401" s="11"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
         <v>20</v>
       </c>
@@ -16274,8 +17446,11 @@
         <v>123</v>
       </c>
       <c r="L402" s="11"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
         <v>20</v>
       </c>
@@ -16308,8 +17483,11 @@
       <c r="L403" s="11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
         <v>20</v>
       </c>
@@ -16332,8 +17510,11 @@
       <c r="J404" s="11"/>
       <c r="K404" s="11"/>
       <c r="L404" s="11"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
         <v>20</v>
       </c>
@@ -16356,8 +17537,11 @@
       <c r="J405" s="11"/>
       <c r="K405" s="11"/>
       <c r="L405" s="11"/>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
         <v>20</v>
       </c>
@@ -16380,8 +17564,11 @@
       <c r="J406" s="11"/>
       <c r="K406" s="11"/>
       <c r="L406" s="11"/>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
         <v>828</v>
       </c>
@@ -16404,8 +17591,11 @@
       <c r="J407" s="11"/>
       <c r="K407" s="11"/>
       <c r="L407" s="11"/>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
         <v>828</v>
       </c>
@@ -16428,8 +17618,11 @@
       <c r="J408" s="11"/>
       <c r="K408" s="11"/>
       <c r="L408" s="11"/>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
         <v>828</v>
       </c>
@@ -16452,8 +17645,11 @@
       <c r="J409" s="11"/>
       <c r="K409" s="11"/>
       <c r="L409" s="11"/>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="s">
         <v>828</v>
       </c>
@@ -16476,8 +17672,11 @@
       <c r="J410" s="11"/>
       <c r="K410" s="11"/>
       <c r="L410" s="11"/>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
         <v>828</v>
       </c>
@@ -16500,8 +17699,11 @@
       <c r="J411" s="11"/>
       <c r="K411" s="11"/>
       <c r="L411" s="11"/>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="s">
         <v>828</v>
       </c>
@@ -16524,8 +17726,11 @@
       <c r="J412" s="11"/>
       <c r="K412" s="11"/>
       <c r="L412" s="11"/>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="s">
         <v>828</v>
       </c>
@@ -16548,8 +17753,11 @@
       <c r="J413" s="11"/>
       <c r="K413" s="11"/>
       <c r="L413" s="11"/>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="s">
         <v>828</v>
       </c>
@@ -16572,8 +17780,11 @@
       <c r="J414" s="11"/>
       <c r="K414" s="11"/>
       <c r="L414" s="11"/>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="s">
         <v>828</v>
       </c>
@@ -16598,8 +17809,11 @@
         <v>844</v>
       </c>
       <c r="L415" s="11"/>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="s">
         <v>828</v>
       </c>
@@ -16624,8 +17838,11 @@
         <v>844</v>
       </c>
       <c r="L416" s="11"/>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="s">
         <v>828</v>
       </c>
@@ -16650,8 +17867,11 @@
         <v>737</v>
       </c>
       <c r="L417" s="11"/>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="s">
         <v>828</v>
       </c>
@@ -16676,8 +17896,11 @@
         <v>737</v>
       </c>
       <c r="L418" s="11"/>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="s">
         <v>849</v>
       </c>
@@ -16700,8 +17923,11 @@
       <c r="J419" s="11"/>
       <c r="K419" s="11"/>
       <c r="L419" s="11"/>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="s">
         <v>849</v>
       </c>
@@ -16724,8 +17950,11 @@
       <c r="J420" s="11"/>
       <c r="K420" s="11"/>
       <c r="L420" s="11"/>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="s">
         <v>849</v>
       </c>
@@ -16748,8 +17977,11 @@
       <c r="J421" s="11"/>
       <c r="K421" s="11"/>
       <c r="L421" s="11"/>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="s">
         <v>849</v>
       </c>
@@ -16772,8 +18004,11 @@
       <c r="J422" s="11"/>
       <c r="K422" s="11"/>
       <c r="L422" s="11"/>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="s">
         <v>849</v>
       </c>
@@ -16796,8 +18031,11 @@
       <c r="J423" s="11"/>
       <c r="K423" s="11"/>
       <c r="L423" s="11"/>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="s">
         <v>849</v>
       </c>
@@ -16820,8 +18058,11 @@
       <c r="J424" s="11"/>
       <c r="K424" s="11"/>
       <c r="L424" s="11"/>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="s">
         <v>849</v>
       </c>
@@ -16846,8 +18087,11 @@
         <v>33</v>
       </c>
       <c r="L425" s="11"/>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="s">
         <v>849</v>
       </c>
@@ -16870,8 +18114,11 @@
       <c r="J426" s="11"/>
       <c r="K426" s="11"/>
       <c r="L426" s="11"/>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="s">
         <v>849</v>
       </c>
@@ -16894,8 +18141,11 @@
       <c r="J427" s="11"/>
       <c r="K427" s="11"/>
       <c r="L427" s="11"/>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="s">
         <v>849</v>
       </c>
@@ -16918,8 +18168,11 @@
       <c r="J428" s="11"/>
       <c r="K428" s="11"/>
       <c r="L428" s="11"/>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="s">
         <v>849</v>
       </c>
@@ -16942,8 +18195,11 @@
       <c r="J429" s="11"/>
       <c r="K429" s="11"/>
       <c r="L429" s="11"/>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="s">
         <v>849</v>
       </c>
@@ -16966,8 +18222,11 @@
       <c r="J430" s="11"/>
       <c r="K430" s="11"/>
       <c r="L430" s="11"/>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="s">
         <v>849</v>
       </c>
@@ -16990,8 +18249,11 @@
       <c r="J431" s="11"/>
       <c r="K431" s="11"/>
       <c r="L431" s="11"/>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="s">
         <v>849</v>
       </c>
@@ -17014,8 +18276,11 @@
       <c r="J432" s="11"/>
       <c r="K432" s="11"/>
       <c r="L432" s="11"/>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="s">
         <v>849</v>
       </c>
@@ -17038,8 +18303,11 @@
       <c r="J433" s="11"/>
       <c r="K433" s="11"/>
       <c r="L433" s="11"/>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="s">
         <v>849</v>
       </c>
@@ -17062,8 +18330,11 @@
       <c r="J434" s="11"/>
       <c r="K434" s="11"/>
       <c r="L434" s="11"/>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="s">
         <v>849</v>
       </c>
@@ -17086,8 +18357,11 @@
       <c r="J435" s="11"/>
       <c r="K435" s="11"/>
       <c r="L435" s="11"/>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="s">
         <v>849</v>
       </c>
@@ -17110,8 +18384,11 @@
       <c r="J436" s="11"/>
       <c r="K436" s="11"/>
       <c r="L436" s="11"/>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="s">
         <v>875</v>
       </c>
@@ -17134,8 +18411,11 @@
       <c r="J437" s="11"/>
       <c r="K437" s="11"/>
       <c r="L437" s="11"/>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="s">
         <v>875</v>
       </c>
@@ -17158,8 +18438,11 @@
       <c r="J438" s="11"/>
       <c r="K438" s="11"/>
       <c r="L438" s="11"/>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="s">
         <v>875</v>
       </c>
@@ -17182,8 +18465,11 @@
       <c r="J439" s="11"/>
       <c r="K439" s="11"/>
       <c r="L439" s="11"/>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="s">
         <v>875</v>
       </c>
@@ -17206,8 +18492,11 @@
       <c r="J440" s="11"/>
       <c r="K440" s="11"/>
       <c r="L440" s="11"/>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="s">
         <v>875</v>
       </c>
@@ -17230,8 +18519,11 @@
       <c r="J441" s="11"/>
       <c r="K441" s="11"/>
       <c r="L441" s="11"/>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="s">
         <v>875</v>
       </c>
@@ -17254,8 +18546,11 @@
       <c r="J442" s="11"/>
       <c r="K442" s="11"/>
       <c r="L442" s="11"/>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="s">
         <v>875</v>
       </c>
@@ -17278,8 +18573,11 @@
       <c r="J443" s="11"/>
       <c r="K443" s="11"/>
       <c r="L443" s="11"/>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="s">
         <v>875</v>
       </c>
@@ -17302,8 +18600,11 @@
       <c r="J444" s="11"/>
       <c r="K444" s="11"/>
       <c r="L444" s="11"/>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="s">
         <v>875</v>
       </c>
@@ -17326,8 +18627,11 @@
       <c r="J445" s="11"/>
       <c r="K445" s="11"/>
       <c r="L445" s="11"/>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="s">
         <v>875</v>
       </c>
@@ -17350,8 +18654,11 @@
       <c r="J446" s="11"/>
       <c r="K446" s="11"/>
       <c r="L446" s="11"/>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="s">
         <v>875</v>
       </c>
@@ -17374,8 +18681,11 @@
       <c r="J447" s="11"/>
       <c r="K447" s="11"/>
       <c r="L447" s="11"/>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="s">
         <v>875</v>
       </c>
@@ -17398,8 +18708,11 @@
       <c r="J448" s="11"/>
       <c r="K448" s="11"/>
       <c r="L448" s="11"/>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="s">
         <v>875</v>
       </c>
@@ -17422,8 +18735,11 @@
       <c r="J449" s="11"/>
       <c r="K449" s="11"/>
       <c r="L449" s="11"/>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="s">
         <v>875</v>
       </c>
@@ -17446,8 +18762,11 @@
       <c r="J450" s="11"/>
       <c r="K450" s="11"/>
       <c r="L450" s="11"/>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="s">
         <v>875</v>
       </c>
@@ -17470,8 +18789,11 @@
       <c r="J451" s="11"/>
       <c r="K451" s="11"/>
       <c r="L451" s="11"/>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="s">
         <v>875</v>
       </c>
@@ -17494,676 +18816,679 @@
       <c r="J452" s="11"/>
       <c r="K452" s="11"/>
       <c r="L452" s="11"/>
+      <c r="M452">
+        <v>451</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C32 C36 C47 C54:C68 C72:C83 C2:C3 C85:C147" xr:uid="{E1CD2BAD-A141-476C-9176-E02B000DBE85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C32 C36 C47 C54:C68 C72:C83 C2:C3 C85:C147">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C35 C37:C46 C48:C53 C4:C29" xr:uid="{E04E7E6C-AEB3-4027-9F57-BECD572A6161}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C35 C37:C46 C48:C53 C4:C29">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1B22BFDD-43AA-4010-8333-8A46D3CB616A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{CB59F5C9-42A3-4589-AEC4-998E8554D35D}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{1121D455-3725-4323-9C08-6C45952EBCBD}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{1B870E5B-3910-421A-91C0-DDEF9AFB68B5}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{AC7EE8FD-01CD-4174-B70F-D89127341BB2}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{50958A49-E3AE-4667-9AD8-134372FFD08E}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00C40432-1D70-42B6-BD16-5423E9D74C9A}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{0313989A-70D1-4435-B4D5-578640646FB3}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{8F20F850-70FF-4E33-B76D-D0402A5EA8F9}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{3E673102-A5D3-40D5-A0FB-8C65B90AAA58}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{C8503080-4512-4E09-ACE8-D82F1F0379F8}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{C73FFD99-0689-41FF-822C-29C2B3B9E78A}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{45C72F10-C144-4ADD-9B17-EF89A0C4547B}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{0C697318-A7AD-4771-B30D-3FF50EFEE018}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{5882F3CA-3039-4A6C-B316-6A7425B9181D}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{2609B015-5F29-4744-9702-F4706290F1BD}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{C65E69ED-1CE3-4960-8F0D-B2588697BFAA}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{C25395F1-E48F-45ED-8EF7-8443320EED19}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{18C8F825-A936-4C32-817D-EE52868B4C6D}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{C6BD872E-57FB-497C-AA8E-2E9B91633DF4}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{BE492182-D476-4FE6-9FA1-FD66BF45F1B0}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{D7E9A151-EFCF-4126-9077-1D27691EE4C9}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{13508A42-AEDC-4142-BD93-3F90244B988D}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{339450E1-1AA7-4782-838C-BD8570B4FCF0}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{836538C5-0DCC-47A2-9A05-874E5A0D5C43}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{087AD379-7E94-4A78-A79D-622218D3E4BF}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{06822550-2DD9-48F6-B89F-82F6D2C7A1A7}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{2311401F-05B2-45DD-ACC6-082989687706}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{DA012CBF-BAA1-4AE8-8295-2C9268122C55}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{8061CCB6-39C7-4CA6-AF0B-547D223FFB75}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{BA918F2D-BA99-4B37-A3A4-313F169FC82F}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{E5A1D2D0-9E3C-4DBD-A0B6-60F1996889CE}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{60C53181-F954-40C4-9EA9-B4CD2FD562E1}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{C27C839B-050C-41B2-B9DC-91D47EE3B6B4}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{6CA7F559-6DB9-4944-801F-C211D9AE11B8}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{8A509BC6-27D7-40CD-ADEE-574FBB40F9A8}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{2705B4A1-4579-4863-A184-C829EB9EE982}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{ED9DFA80-50AA-4D1C-8753-569D0C699B7A}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{D24D4F5A-CC09-4932-84D5-981895375B48}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{B99EE3C4-F500-49D3-9D1C-7DAB2D1A8C89}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{7C79C645-9ECF-4656-ACE9-4DCACB98D6B2}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{C233BB1F-6622-43D2-B5D6-420FEF3CAA2C}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{791969E0-903D-416D-8BA6-F563E981FAC6}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{BC2B0DEE-51D7-4745-905D-77F56E4F512E}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{82C793E8-46F6-4504-89BF-20F0E2BD4961}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{9A00AE0B-6CCA-4C37-90F9-91DED5592DA8}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{F3AD3518-CB9E-4B67-861F-F83518EBC00E}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{5C1D1CFD-BF21-49EC-A382-C613C6360885}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{3B9C90D0-2540-47A3-8FAA-EAEACDECA52F}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{84BDB984-F707-4612-BC8B-E658595421D9}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{51107336-BB9B-4C65-B04B-D3D422007EB5}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{111A7593-94A2-4224-AFD4-34245E0ECE5F}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{D0383391-3BF4-4A48-BDCC-3006B2EB2EA1}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{F65C697C-4F22-47FE-97CE-24FABF0BFF93}"/>
-    <hyperlink ref="D57" r:id="rId55" xr:uid="{76E9C296-0B00-4AF4-95FB-FC5F5D6EC6C5}"/>
-    <hyperlink ref="D58" r:id="rId56" xr:uid="{845AC152-A3C9-41C5-8767-28821DD1DC87}"/>
-    <hyperlink ref="D59" r:id="rId57" xr:uid="{97AD9E1D-5AE4-4B1B-9239-1FABD077D31D}"/>
-    <hyperlink ref="D81" r:id="rId58" xr:uid="{70085BE0-4242-44B1-95C4-0405FA8F1E0D}"/>
-    <hyperlink ref="D82" r:id="rId59" xr:uid="{99975EC2-24E5-481A-9CA7-A355E757F30A}"/>
-    <hyperlink ref="D83" r:id="rId60" xr:uid="{0C487725-51DC-4F4F-9D7A-4AA986E972BD}"/>
-    <hyperlink ref="D84" r:id="rId61" xr:uid="{20DD862F-DEFE-4FA3-AEE8-E28878052486}"/>
-    <hyperlink ref="D85" r:id="rId62" xr:uid="{C0E821F4-F401-4E12-B628-F2E73F9E52A9}"/>
-    <hyperlink ref="D86" r:id="rId63" xr:uid="{9606FDE4-5EB8-4BFA-81AC-B715318EB311}"/>
-    <hyperlink ref="D87" r:id="rId64" xr:uid="{1F91BD23-045B-497D-9F6B-AD07F2B08585}"/>
-    <hyperlink ref="D88" r:id="rId65" xr:uid="{436E88FD-42BF-4912-9C8D-F4E0E6DF1B44}"/>
-    <hyperlink ref="D89" r:id="rId66" xr:uid="{D987C523-2E6F-45BB-82AD-DF0BD3E48E08}"/>
-    <hyperlink ref="D90" r:id="rId67" xr:uid="{B42B21B8-0C3A-4CAA-BA4E-039E749E2B5E}"/>
-    <hyperlink ref="D91" r:id="rId68" xr:uid="{29E09870-4E2A-4C56-8A21-F6413C039674}"/>
-    <hyperlink ref="D92" r:id="rId69" xr:uid="{EBAAC36C-51CF-45F1-99E0-37406F083846}"/>
-    <hyperlink ref="D93" r:id="rId70" xr:uid="{247DBD5D-769E-46C3-8390-B12F4293722A}"/>
-    <hyperlink ref="D94" r:id="rId71" xr:uid="{452EB9CC-EC71-4D21-BBEA-083345CA0CFA}"/>
-    <hyperlink ref="D95" r:id="rId72" xr:uid="{6FFB1BF0-703A-4514-9173-5DB238A7570C}"/>
-    <hyperlink ref="D96" r:id="rId73" xr:uid="{97278EAC-AD9A-4AD7-AF88-78A3BC6C0888}"/>
-    <hyperlink ref="D97" r:id="rId74" xr:uid="{9B9CF670-5222-4798-A434-76ECBE279CC4}"/>
-    <hyperlink ref="D98" r:id="rId75" xr:uid="{46DDF578-BD00-4CC2-824B-2C8CFB874187}"/>
-    <hyperlink ref="D99" r:id="rId76" xr:uid="{11B0B17D-1268-47F4-854C-F3B21E396A61}"/>
-    <hyperlink ref="D100" r:id="rId77" xr:uid="{12B40DF5-DCD2-4A41-ACEF-6E25D565D95D}"/>
-    <hyperlink ref="D101" r:id="rId78" xr:uid="{1957EAEE-139C-4D20-8ED0-EB3F224DCD1B}"/>
-    <hyperlink ref="D102" r:id="rId79" xr:uid="{1BA9E08B-A4F6-4EC4-8D20-E0DEB9051BA8}"/>
-    <hyperlink ref="D103" r:id="rId80" xr:uid="{0965FB6F-5918-47AB-A27B-7F512FCC9B43}"/>
-    <hyperlink ref="D104" r:id="rId81" xr:uid="{4DC43B29-8B4A-4206-9E1F-2AC61770C0DA}"/>
-    <hyperlink ref="D105" r:id="rId82" xr:uid="{4185DBAE-AD15-4331-97C5-74CE1DFAED39}"/>
-    <hyperlink ref="D106" r:id="rId83" xr:uid="{18375ABF-6295-418A-9664-3ACD6ADAA192}"/>
-    <hyperlink ref="D107" r:id="rId84" xr:uid="{4C3C69F3-5993-4EA5-97F1-C7301C4E7226}"/>
-    <hyperlink ref="D108" r:id="rId85" xr:uid="{B21CE5FE-7DA7-48CB-8F88-AC2926A6317E}"/>
-    <hyperlink ref="D109" r:id="rId86" xr:uid="{24098586-4A60-4406-B9B5-BDAF463A97FD}"/>
-    <hyperlink ref="D110" r:id="rId87" xr:uid="{3CBDA264-23CF-4207-88A7-540FCCBFB06C}"/>
-    <hyperlink ref="D111" r:id="rId88" xr:uid="{B9106F18-FE9D-45FD-BB89-970D81B7997C}"/>
-    <hyperlink ref="D112" r:id="rId89" xr:uid="{B22E9DA4-0F61-49D1-9E59-0239591704A5}"/>
-    <hyperlink ref="D115" r:id="rId90" location="menuscroll" xr:uid="{2327E4E4-B6FE-41B1-8CF0-658AAAA170FA}"/>
-    <hyperlink ref="D116" r:id="rId91" location="menuscroll" xr:uid="{9E66088E-2761-40E6-8207-D4D322891E02}"/>
-    <hyperlink ref="D117" r:id="rId92" xr:uid="{046C4E34-4D9B-4EAB-9CF7-B113004CF3D5}"/>
-    <hyperlink ref="D118" r:id="rId93" xr:uid="{17D3EC8A-36E2-4943-A9EF-9B7C959433FD}"/>
-    <hyperlink ref="D119" r:id="rId94" xr:uid="{5D6A63CF-AAA8-4FA2-9B6B-3B602127FE7E}"/>
-    <hyperlink ref="D120" r:id="rId95" xr:uid="{D15C586A-BF28-4A10-A18C-3820C4C8816E}"/>
-    <hyperlink ref="D123" r:id="rId96" xr:uid="{3D846A27-FC63-4C2F-8B67-72A5F66B40C6}"/>
-    <hyperlink ref="D124" r:id="rId97" xr:uid="{3F394F7B-FC39-4ADD-A5F1-50AD476FCDD6}"/>
-    <hyperlink ref="D125" r:id="rId98" xr:uid="{4B031077-07C6-4E84-85F3-CB777F04480E}"/>
-    <hyperlink ref="D126" r:id="rId99" xr:uid="{97B856C6-0102-424C-AF58-F9034C9C6A07}"/>
-    <hyperlink ref="D127" r:id="rId100" xr:uid="{94801DC2-6B35-40FB-A22A-D16A6241F41A}"/>
-    <hyperlink ref="D128" r:id="rId101" xr:uid="{71828052-DE37-4A4B-B279-1302FB96C902}"/>
-    <hyperlink ref="D129" r:id="rId102" xr:uid="{236D2A6F-4D24-4D25-AB32-CF31510DCBC2}"/>
-    <hyperlink ref="D130" r:id="rId103" xr:uid="{05EFF773-1895-48C9-8A31-8356F2057732}"/>
-    <hyperlink ref="D131" r:id="rId104" xr:uid="{220CCD7C-F830-48E7-8065-5E71E8BC08C6}"/>
-    <hyperlink ref="D132" r:id="rId105" location="tresc_main" xr:uid="{AD20C33C-3922-4139-A514-E390A7C0782F}"/>
-    <hyperlink ref="D133" r:id="rId106" location="tresc_main" xr:uid="{92F9D9AE-4872-4151-A392-6C0BC2AA5BC1}"/>
-    <hyperlink ref="D134" r:id="rId107" xr:uid="{9C16B126-5296-478F-B556-9F41BB43FD5B}"/>
-    <hyperlink ref="D135" r:id="rId108" xr:uid="{23EB8369-4EFE-4E13-870F-6EAF6A2FF329}"/>
-    <hyperlink ref="D136" r:id="rId109" xr:uid="{5E580DF6-D023-43FA-8D25-B2A1B64A7557}"/>
-    <hyperlink ref="D137" r:id="rId110" xr:uid="{59BEA0A5-9991-418C-8D1B-280C80E2E543}"/>
-    <hyperlink ref="D138" r:id="rId111" xr:uid="{972E3EF5-BBCD-420D-8154-96408D2AC845}"/>
-    <hyperlink ref="D139" r:id="rId112" xr:uid="{B4FCBB2B-D85D-4F9E-AC16-3D03A029CA8C}"/>
-    <hyperlink ref="D140" r:id="rId113" xr:uid="{B2FF4308-F726-4168-AD96-D547584C6B3F}"/>
-    <hyperlink ref="D141" r:id="rId114" xr:uid="{BBF18154-77A2-40DE-8735-3EDBD32C6444}"/>
-    <hyperlink ref="D143" r:id="rId115" xr:uid="{068990C4-D1DB-49A7-804D-3B47FCA2A8A0}"/>
-    <hyperlink ref="D142" r:id="rId116" xr:uid="{8BCC0AD7-0357-487C-92F8-50440D16EC6B}"/>
-    <hyperlink ref="D144" r:id="rId117" xr:uid="{ECF5E07D-528B-46FF-9BC3-0D46D42B1B94}"/>
-    <hyperlink ref="D145" r:id="rId118" xr:uid="{0B329FDC-6ED5-4A54-A842-F006BAEF3DDC}"/>
-    <hyperlink ref="D146" r:id="rId119" xr:uid="{4354A098-E664-498F-BBB9-69FD66AF3C7D}"/>
-    <hyperlink ref="D147" r:id="rId120" xr:uid="{4BB405ED-58D5-4A0B-AD5B-2AA29925A88C}"/>
-    <hyperlink ref="D148" r:id="rId121" xr:uid="{4ED3E5B5-920E-4C9C-8B16-23838EE4632B}"/>
-    <hyperlink ref="D149" r:id="rId122" xr:uid="{C839CC90-C6FF-4EB9-A5C5-7C2ED3830249}"/>
-    <hyperlink ref="D150" r:id="rId123" xr:uid="{87207128-9EDB-4E1D-B5FD-82C4FC963F67}"/>
-    <hyperlink ref="D152" r:id="rId124" xr:uid="{F5D53EC9-D3CF-41E1-8CB2-9A93B282E673}"/>
-    <hyperlink ref="D151" r:id="rId125" xr:uid="{B1435272-2A31-4A64-A82B-60FDF7A239A6}"/>
-    <hyperlink ref="D153" r:id="rId126" xr:uid="{A1364B2E-56FA-4FE7-BA9E-6DA69CF0144D}"/>
-    <hyperlink ref="D156" r:id="rId127" xr:uid="{1658A1DF-DAFF-4B05-A9A8-EE7AECA360FD}"/>
-    <hyperlink ref="D157" r:id="rId128" xr:uid="{EB86CBAB-2B6A-4CD9-9F48-138D71F34488}"/>
-    <hyperlink ref="D158" r:id="rId129" xr:uid="{E77B1938-1E1C-44A5-B342-2899865BAED3}"/>
-    <hyperlink ref="D159" r:id="rId130" xr:uid="{65C1D16E-01C8-4DF6-AFFF-26168247176F}"/>
-    <hyperlink ref="D160" r:id="rId131" xr:uid="{3920D830-6880-4D28-BF56-9095FDDAD83F}"/>
-    <hyperlink ref="D161" r:id="rId132" xr:uid="{C514829C-90A6-4DCE-AD83-90C9858B5E84}"/>
-    <hyperlink ref="D162" r:id="rId133" xr:uid="{3C3D442A-BA07-4AA5-A3E5-F91E35AC1D4D}"/>
-    <hyperlink ref="D163" r:id="rId134" xr:uid="{81357427-BBBF-4974-BEF2-41FE10D0D2BB}"/>
-    <hyperlink ref="D164" r:id="rId135" xr:uid="{E2A9B111-AB7F-47CC-A91C-81D450E701AC}"/>
-    <hyperlink ref="D165" r:id="rId136" xr:uid="{7383073F-FD88-4244-A2C1-11D3E2D34598}"/>
-    <hyperlink ref="D166" r:id="rId137" xr:uid="{BF0FBC7C-B48B-45FD-9A67-390E0B87BC63}"/>
-    <hyperlink ref="D167" r:id="rId138" xr:uid="{E304B0A0-C1D1-49BE-B456-9AD5B3350287}"/>
-    <hyperlink ref="D168" r:id="rId139" xr:uid="{46F5EF13-A420-4791-A77A-14202410F2C3}"/>
-    <hyperlink ref="D169" r:id="rId140" xr:uid="{E2451B99-BAA6-47E0-AB42-811470633BD0}"/>
-    <hyperlink ref="D170" r:id="rId141" xr:uid="{98DC3AF2-7C2D-40E0-AA33-F328FA91EA19}"/>
-    <hyperlink ref="D171" r:id="rId142" xr:uid="{C13C37D0-B259-48EA-AD03-13CE2484A4A0}"/>
-    <hyperlink ref="D172" r:id="rId143" xr:uid="{2FA53DCF-6881-43C8-93E8-26C82657B420}"/>
-    <hyperlink ref="D173" r:id="rId144" xr:uid="{6D9118FD-A776-4386-93EC-82E9AB69B08F}"/>
-    <hyperlink ref="D174" r:id="rId145" xr:uid="{660AB49A-ADCC-4DA1-9F68-CD941FD0D6AC}"/>
-    <hyperlink ref="D175" r:id="rId146" xr:uid="{46CFF491-E268-4A14-8A1C-7BACFB33F2B3}"/>
-    <hyperlink ref="D176" r:id="rId147" xr:uid="{825DD58A-1423-4DAA-B5DC-156AF9A2DB1E}"/>
-    <hyperlink ref="D177" r:id="rId148" xr:uid="{46CCA5F4-82BB-4AAB-AE37-9A088480F5E4}"/>
-    <hyperlink ref="D178" r:id="rId149" xr:uid="{12F4C9B7-7004-40C9-A62E-9057D1CB96ED}"/>
-    <hyperlink ref="D179" r:id="rId150" xr:uid="{697C3A16-7893-42E1-95EC-2081769B7233}"/>
-    <hyperlink ref="D180" r:id="rId151" xr:uid="{F8273339-644C-4FD7-8CA3-3E58264CE5A3}"/>
-    <hyperlink ref="D181" r:id="rId152" xr:uid="{678F3716-9ED0-418C-8BFC-3B712EC1DDC5}"/>
-    <hyperlink ref="D182" r:id="rId153" xr:uid="{1008476C-26A9-4851-91E7-0CA601666065}"/>
-    <hyperlink ref="D183" r:id="rId154" xr:uid="{22204FFD-3C86-4EBB-A55B-A023819FEB26}"/>
-    <hyperlink ref="D184" r:id="rId155" xr:uid="{7D86C081-18B3-41BE-836C-4DD2DB585072}"/>
-    <hyperlink ref="D185" r:id="rId156" xr:uid="{9DF46AD9-2295-4FCA-A9B1-00DEAC7F10F3}"/>
-    <hyperlink ref="D186" r:id="rId157" xr:uid="{CC6DBA37-C2DD-4C01-86F6-F609B6A6A360}"/>
-    <hyperlink ref="D187" r:id="rId158" xr:uid="{78DB856D-884F-47E4-8C56-93DE6B11EE63}"/>
-    <hyperlink ref="D188" r:id="rId159" xr:uid="{730E1866-FFD2-47BD-9A08-9782F762EB2A}"/>
-    <hyperlink ref="D189" r:id="rId160" xr:uid="{CBAEDAC6-2652-48F8-840C-34979CAC1BDD}"/>
-    <hyperlink ref="D194" r:id="rId161" xr:uid="{B51F0CA4-C68F-4335-B0DD-50A08ED4B016}"/>
-    <hyperlink ref="D195" r:id="rId162" xr:uid="{39EEEBE5-955C-4532-B3E4-7F6F4CF45936}"/>
-    <hyperlink ref="D196" r:id="rId163" xr:uid="{C8512E57-0555-4B8D-B7DA-B4B9BCEA4FC4}"/>
-    <hyperlink ref="D197" r:id="rId164" xr:uid="{67025F37-AB42-41C6-8626-14AAEDB18589}"/>
-    <hyperlink ref="D198" r:id="rId165" xr:uid="{E09038FC-AC39-4562-A5E9-F726C031DE7F}"/>
-    <hyperlink ref="D199" r:id="rId166" xr:uid="{0916DAA0-1E40-480B-BE63-7E47C9C7D18A}"/>
-    <hyperlink ref="D200" r:id="rId167" xr:uid="{43EA5570-505F-4D96-8429-F08906651F91}"/>
-    <hyperlink ref="D201" r:id="rId168" xr:uid="{B7C0A409-FEF9-4BBB-8DF8-56FFE94FAF07}"/>
-    <hyperlink ref="D202" r:id="rId169" xr:uid="{E1727677-EFBE-45F7-B441-88FBD4DE071F}"/>
-    <hyperlink ref="D203" r:id="rId170" xr:uid="{19EDBF54-3C61-4600-9E83-4B5411AB99D9}"/>
-    <hyperlink ref="D204" r:id="rId171" xr:uid="{5C6F0195-3A70-481E-B4D4-FCEF0F4213D6}"/>
-    <hyperlink ref="D205" r:id="rId172" xr:uid="{19599758-926C-4B04-9770-130F9C207B99}"/>
-    <hyperlink ref="D206" r:id="rId173" xr:uid="{E28FFDF5-DFCB-4643-B655-DBBC0586DAFF}"/>
-    <hyperlink ref="D207" r:id="rId174" xr:uid="{C8339C17-7579-4426-9206-279D6CC4246E}"/>
-    <hyperlink ref="D208" r:id="rId175" xr:uid="{1AC0D88F-D5B8-40F2-B881-6823699019C9}"/>
-    <hyperlink ref="D209" r:id="rId176" xr:uid="{B9082491-0C3A-4292-A899-33A7E0C93301}"/>
-    <hyperlink ref="D210" r:id="rId177" xr:uid="{77F8BCB3-9A79-4232-9BB6-05E1A44693A4}"/>
-    <hyperlink ref="D211" r:id="rId178" xr:uid="{CCB516C1-2817-4DAE-9B80-5B479DC60C74}"/>
-    <hyperlink ref="D212" r:id="rId179" xr:uid="{FB65CB6F-DA31-4954-BF54-45225594337D}"/>
-    <hyperlink ref="D213" r:id="rId180" xr:uid="{F51792CB-0403-49E0-9F85-0A198CCAFA10}"/>
-    <hyperlink ref="D214" r:id="rId181" xr:uid="{5D0F7CF5-9119-4548-8950-71D5D70068D7}"/>
-    <hyperlink ref="D215" r:id="rId182" xr:uid="{066FCE82-26E2-41FD-9BAE-19C9EE65641A}"/>
-    <hyperlink ref="D216" r:id="rId183" xr:uid="{46A81342-C92B-4216-BA72-95F18577BBC4}"/>
-    <hyperlink ref="D217" r:id="rId184" xr:uid="{71AAFBC4-5D15-410E-961E-15487C2831B9}"/>
-    <hyperlink ref="D218" r:id="rId185" xr:uid="{EED3C625-6419-4F4C-A476-28605B08F636}"/>
-    <hyperlink ref="D219" r:id="rId186" xr:uid="{9B6877FC-6E67-4FE4-828A-DE5590C3E0E0}"/>
-    <hyperlink ref="D220" r:id="rId187" xr:uid="{F6B70AAD-8D32-472B-A1BE-56AAD6405211}"/>
-    <hyperlink ref="D221" r:id="rId188" xr:uid="{CCD9BC2C-F0C4-42A2-997F-DD74E92D4AF6}"/>
-    <hyperlink ref="D222" r:id="rId189" xr:uid="{5D86E5B9-0700-4F65-BB58-85EF12960998}"/>
-    <hyperlink ref="D223" r:id="rId190" xr:uid="{098D9200-7BF3-4BB1-B40A-E1309B9A1D7F}"/>
-    <hyperlink ref="D224" r:id="rId191" xr:uid="{FC23D7C4-6D4B-4979-BA61-22FFE464D49C}"/>
-    <hyperlink ref="D226" r:id="rId192" xr:uid="{4F7B07A8-CB53-427F-83B5-CA43E5F8B2E9}"/>
-    <hyperlink ref="D227" r:id="rId193" xr:uid="{061551BD-3712-4C69-9465-8EC8C609F5E8}"/>
-    <hyperlink ref="D228" r:id="rId194" xr:uid="{04BEF6DD-85D9-4A06-B08E-1FB1DFAA8B6B}"/>
-    <hyperlink ref="D229" r:id="rId195" xr:uid="{2B6CA059-1055-4509-8928-7345981A6E33}"/>
-    <hyperlink ref="D230" r:id="rId196" xr:uid="{55C8BB94-D990-47F2-B796-4EDEBD276C02}"/>
-    <hyperlink ref="D231" r:id="rId197" xr:uid="{9E16C581-5E2A-403B-9399-253F7F71FB04}"/>
-    <hyperlink ref="D232" r:id="rId198" xr:uid="{D708F648-95B7-466F-AF99-C84365EC7E5B}"/>
-    <hyperlink ref="D233" r:id="rId199" xr:uid="{BCEF17FF-A9FC-4F62-BBEF-64C4ECE23DD8}"/>
-    <hyperlink ref="D234" r:id="rId200" xr:uid="{5C5D1D99-0DB8-4CCE-A34A-886F209B19E3}"/>
-    <hyperlink ref="D235" r:id="rId201" xr:uid="{31DA08A3-169E-4CFE-8DE9-D76916286E5B}"/>
-    <hyperlink ref="D237" r:id="rId202" xr:uid="{F4B237C1-5197-488F-8DF8-9B8C31334231}"/>
-    <hyperlink ref="D238" r:id="rId203" xr:uid="{8AEB5E71-DFF2-449A-B70E-D976A6260140}"/>
-    <hyperlink ref="D239" r:id="rId204" xr:uid="{BDCCD6E4-83BA-4F76-9334-36077C280FAB}"/>
-    <hyperlink ref="D240" r:id="rId205" xr:uid="{029ED7AE-6BB8-43C1-B056-50699AC45972}"/>
-    <hyperlink ref="D241" r:id="rId206" xr:uid="{A792F3E1-BF8D-4A2B-B081-D41DBCE52393}"/>
-    <hyperlink ref="D242" r:id="rId207" xr:uid="{625B29D7-2DB6-4D39-8891-7DED67B7B3A3}"/>
-    <hyperlink ref="D243" r:id="rId208" xr:uid="{98F4C1BB-F9BF-4207-9BE9-B87193580E19}"/>
-    <hyperlink ref="D244" r:id="rId209" xr:uid="{765BEE78-431B-4DAF-AF35-7B1A71E199E2}"/>
-    <hyperlink ref="D245" r:id="rId210" xr:uid="{B103EFE2-2BB3-45F9-AC9C-D8634D9B02A4}"/>
-    <hyperlink ref="D246" r:id="rId211" xr:uid="{9112D127-BBD4-4910-B058-A94B27B98F17}"/>
-    <hyperlink ref="D247" r:id="rId212" xr:uid="{C0C9ECDE-D8E3-4E4E-B794-AFF5E0400526}"/>
-    <hyperlink ref="D261" r:id="rId213" xr:uid="{B60ECF2F-B0A1-49AB-9741-15138B7D417A}"/>
-    <hyperlink ref="D248" r:id="rId214" xr:uid="{2E6522EA-16D4-4490-91C6-02230873519B}"/>
-    <hyperlink ref="D249" r:id="rId215" xr:uid="{F83DC9C5-BCCF-4A19-A767-500FE7980D1B}"/>
-    <hyperlink ref="D250" r:id="rId216" xr:uid="{1058255F-8A89-4A21-9110-6E7ED73F53FC}"/>
-    <hyperlink ref="D251" r:id="rId217" xr:uid="{1C02D271-4EC3-4CD4-B7A1-F94AD89AF85C}"/>
-    <hyperlink ref="D252" r:id="rId218" xr:uid="{FB652970-D0C7-4631-8437-405FE78F2651}"/>
-    <hyperlink ref="D253" r:id="rId219" xr:uid="{3788742C-CD53-4E54-B476-8BF0D8BAE4A1}"/>
-    <hyperlink ref="D254" r:id="rId220" xr:uid="{B2E4818B-7F7D-419E-98FB-5AA33A1EEFD0}"/>
-    <hyperlink ref="D255" r:id="rId221" xr:uid="{48567E6D-5AE9-4858-A8D1-D44E7BB90E0D}"/>
-    <hyperlink ref="D257" r:id="rId222" xr:uid="{521D4FA8-3BDD-4820-946F-DC8E0272BEA5}"/>
-    <hyperlink ref="D258" r:id="rId223" xr:uid="{770670B9-D93A-4111-AC22-029F28C0BDCD}"/>
-    <hyperlink ref="D259" r:id="rId224" xr:uid="{869C0F86-68DE-4B2E-AC5D-E5D33D48F16E}"/>
-    <hyperlink ref="D260" r:id="rId225" xr:uid="{FE4A7E53-3C2E-4165-8AB9-8D6A2E28EB3C}"/>
-    <hyperlink ref="D262" r:id="rId226" xr:uid="{7C6FA3E1-E345-4F87-AE73-9CA4F781F899}"/>
-    <hyperlink ref="D417" r:id="rId227" xr:uid="{372471F9-4A0C-4498-B2E5-78E5AD5FCF36}"/>
-    <hyperlink ref="D418" r:id="rId228" xr:uid="{E01B7290-9C35-4F67-9CA9-7CC8325F1C07}"/>
-    <hyperlink ref="D441" r:id="rId229" xr:uid="{79550C3F-AD11-4EFC-A57B-EC346C620874}"/>
-    <hyperlink ref="D263" r:id="rId230" xr:uid="{9077E321-43E7-413E-9A30-7B199FFE5611}"/>
-    <hyperlink ref="D264" r:id="rId231" xr:uid="{8A6C2963-9B63-44C0-8D76-C82C6031D58C}"/>
-    <hyperlink ref="D265" r:id="rId232" xr:uid="{458650A5-3097-425A-9E63-9F503E01D537}"/>
-    <hyperlink ref="D266" r:id="rId233" xr:uid="{C7F959EB-A552-4DCA-9007-ED6DC9232267}"/>
-    <hyperlink ref="D267" r:id="rId234" xr:uid="{35A9A3FE-68E0-43A8-AC4E-C6982A7804D4}"/>
-    <hyperlink ref="D268" r:id="rId235" xr:uid="{714D24FA-9E31-4113-BEBE-91ACD87BA681}"/>
-    <hyperlink ref="D269" r:id="rId236" xr:uid="{C447B9CB-F22D-46D2-B14E-17C810B7B534}"/>
-    <hyperlink ref="D270" r:id="rId237" xr:uid="{F3EA0383-420F-4726-92FA-0C82F23CC01E}"/>
-    <hyperlink ref="D271" r:id="rId238" xr:uid="{33D86E44-C280-48A9-BB21-F312316D644B}"/>
-    <hyperlink ref="D272" r:id="rId239" xr:uid="{D1F96C33-BD22-4FA9-99E3-3D128D7ED69E}"/>
-    <hyperlink ref="D273" r:id="rId240" xr:uid="{991374D6-B3AB-4F5E-B7D0-E341BDC7CC33}"/>
-    <hyperlink ref="D274" r:id="rId241" xr:uid="{DC9B34FD-9780-483D-960D-D17EB8A0B419}"/>
-    <hyperlink ref="D275" r:id="rId242" xr:uid="{F0E015F6-47CC-4E85-818C-25A067B97B44}"/>
-    <hyperlink ref="D276" r:id="rId243" xr:uid="{8EFF25E9-D6E3-4FEE-A52F-39048A0739ED}"/>
-    <hyperlink ref="D277" r:id="rId244" xr:uid="{457EB29C-9CBF-418D-9F43-F889019A4CAC}"/>
-    <hyperlink ref="D278" r:id="rId245" xr:uid="{18DD82BD-5F8B-445A-8CF0-F0DF82E80F2B}"/>
-    <hyperlink ref="D279" r:id="rId246" xr:uid="{5828C04B-B159-4264-A32B-014B417BFEA5}"/>
-    <hyperlink ref="D281" r:id="rId247" xr:uid="{7CBE5348-FA28-47C6-B3CC-A4A9E34C6DD6}"/>
-    <hyperlink ref="D280" r:id="rId248" xr:uid="{880CBA9A-D897-4BD8-9A33-7D70B1091CBF}"/>
-    <hyperlink ref="D282" r:id="rId249" xr:uid="{0F2D2A05-D996-4E6F-8D24-5A4AF78B0955}"/>
-    <hyperlink ref="D283" r:id="rId250" xr:uid="{66D3A555-BE6F-4100-85F0-B1FC5DA5948B}"/>
-    <hyperlink ref="D284" r:id="rId251" xr:uid="{D0E38C6B-2850-4122-BEE8-E5F62E18CE98}"/>
-    <hyperlink ref="D285" r:id="rId252" xr:uid="{78888BEF-33F4-41DE-980D-CA382460A02A}"/>
-    <hyperlink ref="D286" r:id="rId253" xr:uid="{294DFEF9-6165-4473-AE18-C2D90970EA1B}"/>
-    <hyperlink ref="D287" r:id="rId254" xr:uid="{9070809B-EADC-43D7-BB5B-E2F66FD21766}"/>
-    <hyperlink ref="D288" r:id="rId255" xr:uid="{0A548C04-6154-43C0-83FC-08208E942D4A}"/>
-    <hyperlink ref="D289" r:id="rId256" xr:uid="{4289F18E-0424-470B-BE4D-1E7D49677E24}"/>
-    <hyperlink ref="D290" r:id="rId257" xr:uid="{BEBFB897-E7CB-4B7B-AA71-7E1310CB91D2}"/>
-    <hyperlink ref="D291" r:id="rId258" xr:uid="{6BA88128-E956-43B4-B7B9-D9BE36DA552F}"/>
-    <hyperlink ref="D61" r:id="rId259" xr:uid="{3613C907-00A2-4B56-B3F7-80F94032813E}"/>
-    <hyperlink ref="D65" r:id="rId260" xr:uid="{2E698F7C-0550-48D4-83A5-91C87401C00E}"/>
-    <hyperlink ref="D71" r:id="rId261" xr:uid="{6464BD78-7969-4A86-9F1C-198DC010FD39}"/>
-    <hyperlink ref="D72" r:id="rId262" xr:uid="{783AB676-3858-4513-B4DA-1CB10E31D07E}"/>
-    <hyperlink ref="D73" r:id="rId263" xr:uid="{11D89DC9-1EDF-4A36-984B-98D29FEE1B00}"/>
-    <hyperlink ref="D78" r:id="rId264" xr:uid="{A5C504EE-0AAC-4A1D-8FAE-B83E0A712E5A}"/>
-    <hyperlink ref="D80" r:id="rId265" xr:uid="{BACC1E7E-56CA-44E4-BCFF-328601FEE794}"/>
-    <hyperlink ref="D74" r:id="rId266" xr:uid="{71F60B2B-12FB-454F-AF12-F2EA81D897DD}"/>
-    <hyperlink ref="D154" r:id="rId267" xr:uid="{3CA7B144-0BBA-4922-9864-6A62FFB05E6D}"/>
-    <hyperlink ref="D155" r:id="rId268" xr:uid="{57885E96-7874-4327-B75F-61623F9A88B6}"/>
-    <hyperlink ref="D190" r:id="rId269" xr:uid="{62A13540-593B-460F-A953-94067E30D70F}"/>
-    <hyperlink ref="D225" r:id="rId270" xr:uid="{C8B0DF8B-B0DD-4E94-A7FC-1CFDE1317FAB}"/>
-    <hyperlink ref="D256" r:id="rId271" xr:uid="{5EBD93D9-5E44-4E1A-88FC-3268A914CD36}"/>
-    <hyperlink ref="D62" r:id="rId272" xr:uid="{52E20FE9-B2B0-4BB8-B23C-5B8B201A8DDF}"/>
-    <hyperlink ref="D63" r:id="rId273" xr:uid="{7AC97D18-C7D4-49F9-9717-35B0853ECCA6}"/>
-    <hyperlink ref="D64" r:id="rId274" xr:uid="{E7107DCC-C2C9-4AEE-BCC0-503C0EAB964F}"/>
-    <hyperlink ref="I4" r:id="rId275" xr:uid="{AB587895-99BC-4D3E-8CDB-AD86117B642D}"/>
-    <hyperlink ref="I13" r:id="rId276" xr:uid="{8D997AE0-1365-4589-912A-415712211B77}"/>
-    <hyperlink ref="I22" r:id="rId277" xr:uid="{FD5B4CFF-15E4-4F72-8A66-A477ECA5E8F8}"/>
-    <hyperlink ref="I23" r:id="rId278" xr:uid="{A349F91D-BEAF-41CC-8C0F-60AD4AA0FE7C}"/>
-    <hyperlink ref="I24" r:id="rId279" xr:uid="{4C06155E-EE21-471E-A612-EDD7212A972A}"/>
-    <hyperlink ref="I25" r:id="rId280" xr:uid="{FE05E780-559A-488C-AB83-FE98050A0803}"/>
-    <hyperlink ref="I26" r:id="rId281" xr:uid="{33FCAD20-8405-42CE-9127-4BAA8933BEBF}"/>
-    <hyperlink ref="I30" r:id="rId282" xr:uid="{B2FFDBF5-07C8-4781-B9DA-26307EA01F18}"/>
-    <hyperlink ref="I10" r:id="rId283" xr:uid="{7B87E988-FCDC-49BE-B558-33657AD3E6B7}"/>
-    <hyperlink ref="I9" r:id="rId284" xr:uid="{D462748E-B395-4069-ACDC-833842861BDB}"/>
-    <hyperlink ref="I8" r:id="rId285" xr:uid="{98F9A3CA-E49B-40B5-AFEB-51790B1ABCFB}"/>
-    <hyperlink ref="I31" r:id="rId286" xr:uid="{53A41E4D-839D-4058-AE20-2FBD7E57BC82}"/>
-    <hyperlink ref="I32" r:id="rId287" xr:uid="{11421AA1-3D6F-4692-BC46-1C0AFC419CA4}"/>
-    <hyperlink ref="I33" r:id="rId288" xr:uid="{3EEFF3AB-BE2D-44D7-9110-17D9C48FB236}"/>
-    <hyperlink ref="I34" r:id="rId289" xr:uid="{00B78DD3-84B9-45A6-BBF3-AAC3D9C7C664}"/>
-    <hyperlink ref="I35" r:id="rId290" xr:uid="{C782E2B6-17EC-4D90-9E0B-930F8ABBE036}"/>
-    <hyperlink ref="I36" r:id="rId291" xr:uid="{83A08EA9-3E70-4FF2-A106-6191B6BC3B40}"/>
-    <hyperlink ref="I38" r:id="rId292" xr:uid="{B0A4040E-D42E-4743-8CFD-6BA78F3C28A6}"/>
-    <hyperlink ref="I39:I40" r:id="rId293" display="https://glogow.bip.info.pl/" xr:uid="{C41DBF04-7697-4BD7-B95A-3BFEFE9D0B2E}"/>
-    <hyperlink ref="I15" r:id="rId294" xr:uid="{A7EE9A73-7277-41D9-B5F0-29605C45AAE6}"/>
-    <hyperlink ref="I16" r:id="rId295" xr:uid="{75DE9B89-9DB3-46AA-A550-8AAC0A5FED57}"/>
-    <hyperlink ref="I17" r:id="rId296" xr:uid="{53B49251-0B05-4104-9BAA-D387BAB19B43}"/>
-    <hyperlink ref="I48" r:id="rId297" xr:uid="{2C753016-4712-4B3A-8C4B-A18015658E38}"/>
-    <hyperlink ref="I49" r:id="rId298" xr:uid="{31B15FEF-AC85-4502-ABB3-878902C11049}"/>
-    <hyperlink ref="I50" r:id="rId299" xr:uid="{FC560916-231E-4861-94EC-5D71769AC1B8}"/>
-    <hyperlink ref="I51" r:id="rId300" display="http://bip.zukowice.pl/" xr:uid="{8B649771-93FB-46FF-971B-ECD7D5363DB4}"/>
-    <hyperlink ref="I52" r:id="rId301" display="http://bip.zukowice.pl/" xr:uid="{BC0927C3-5C26-49F6-801E-73DF07AC15A4}"/>
-    <hyperlink ref="I53" r:id="rId302" display="http://bip.zukowice.pl/" xr:uid="{D321FFD8-320E-4BF6-826E-8FA37B5E6AE3}"/>
-    <hyperlink ref="I54" r:id="rId303" display="http://bip.zukowice.pl/" xr:uid="{00D2B080-BBAC-473B-A565-79761EFEDB73}"/>
-    <hyperlink ref="I55" r:id="rId304" display="http://bip.zukowice.pl/" xr:uid="{AED70748-DF33-4849-AE97-4F32561D0D00}"/>
-    <hyperlink ref="I56" r:id="rId305" display="http://bip.zukowice.pl/" xr:uid="{2920E194-8932-4E4B-B8AE-44F62271AF29}"/>
-    <hyperlink ref="I57" r:id="rId306" display="http://bip.zukowice.pl/" xr:uid="{C7C6B616-03CA-47EB-94A4-2749E2ACA073}"/>
-    <hyperlink ref="I61" r:id="rId307" display="http://bip.wasosz.eu/" xr:uid="{583373BC-771B-4B6B-A6FA-759B81CE007A}"/>
-    <hyperlink ref="I62" r:id="rId308" display="http://bip.wasosz.eu/" xr:uid="{12BCF418-9AB9-447D-8239-166DE72CDD53}"/>
-    <hyperlink ref="I64" r:id="rId309" display="http://bip.wasosz.eu/" xr:uid="{0028839D-DA41-40A8-9385-3299828CAE71}"/>
-    <hyperlink ref="I63" r:id="rId310" display="http://bip.wasosz.eu/" xr:uid="{9332C2C3-8AF9-4000-938D-BE8BA129490D}"/>
-    <hyperlink ref="D69" r:id="rId311" xr:uid="{1B8B6E48-DB2B-4BDD-B747-276EC3D100DD}"/>
-    <hyperlink ref="I69" r:id="rId312" xr:uid="{6960772F-6EF5-4067-9681-13491E7B1F42}"/>
-    <hyperlink ref="I70" r:id="rId313" xr:uid="{C9CB0897-16F2-42F7-9BE3-54D2C2C70260}"/>
-    <hyperlink ref="I71" r:id="rId314" display="https://glogow.bip.info.pl/" xr:uid="{DB9C04D2-839C-4DAA-8C2F-B7E8565D66EF}"/>
-    <hyperlink ref="I73" r:id="rId315" xr:uid="{32C6A891-BDBF-4F0C-AB9B-F07F7651F697}"/>
-    <hyperlink ref="I74" r:id="rId316" display="http://www.bip.mecinka.pl/" xr:uid="{0CD85EEA-B37E-4910-87BB-72C546A5441F}"/>
-    <hyperlink ref="I75" r:id="rId317" display="http://www.bip.mecinka.pl/" xr:uid="{1A45418A-F741-4C1A-854D-B144DD80640A}"/>
-    <hyperlink ref="D76" r:id="rId318" xr:uid="{AEE3672B-EA59-4975-9C6D-F585655D2EAB}"/>
-    <hyperlink ref="D77" r:id="rId319" xr:uid="{7B631A89-24B0-446A-92B0-46A06D8D107F}"/>
-    <hyperlink ref="I77" r:id="rId320" xr:uid="{A060C2BD-D036-4ABF-9863-D8EFE3DE2B2A}"/>
-    <hyperlink ref="I78" r:id="rId321" xr:uid="{AE68C483-E3AB-4985-ACBC-214F78599EAF}"/>
-    <hyperlink ref="D79" r:id="rId322" xr:uid="{F626E927-E09B-463A-B1CA-496FB98DF4F8}"/>
-    <hyperlink ref="I79" r:id="rId323" xr:uid="{323B4241-167D-4685-89C6-001BB6F8D349}"/>
-    <hyperlink ref="I82" r:id="rId324" display="https://glogow.bip.info.pl/" xr:uid="{8E34152C-153A-423C-B54E-AFF05007F72A}"/>
-    <hyperlink ref="I85" r:id="rId325" xr:uid="{FAF46E09-BD01-4EF0-9B8C-68F0456420DD}"/>
-    <hyperlink ref="I86" r:id="rId326" xr:uid="{2C4E3440-CC1C-45BB-832A-1816C222B835}"/>
-    <hyperlink ref="I87" r:id="rId327" xr:uid="{7AD86C8E-3347-4926-B9AB-67AACA3E93F2}"/>
-    <hyperlink ref="I88" r:id="rId328" xr:uid="{0524A03B-5E9A-43C2-A8DD-592E0531741E}"/>
-    <hyperlink ref="I92" r:id="rId329" xr:uid="{562A108A-A70C-495E-B969-C246DF2A3617}"/>
-    <hyperlink ref="I93" r:id="rId330" xr:uid="{91F4AD8D-5FB6-489E-A8F8-C6044B3026B3}"/>
-    <hyperlink ref="I94" r:id="rId331" xr:uid="{16DCDE9E-5E6A-4860-9291-A79F5A12E37F}"/>
-    <hyperlink ref="I95" r:id="rId332" xr:uid="{BEB3B3A8-6B6E-41F5-9EED-0C3AAC399FCD}"/>
-    <hyperlink ref="I91" r:id="rId333" xr:uid="{8BE8F558-1CF5-4EDD-BCD5-1ECA97418416}"/>
-    <hyperlink ref="I96" r:id="rId334" xr:uid="{BBEDA9EC-1EDB-49D7-8C4B-C455111EB381}"/>
-    <hyperlink ref="I97" r:id="rId335" xr:uid="{D836EA9A-4CFA-41A2-A583-1CD54BA37AA4}"/>
-    <hyperlink ref="I98" r:id="rId336" xr:uid="{2ECA7CCB-D778-4A32-9831-D24F98D4B7CB}"/>
-    <hyperlink ref="I99" r:id="rId337" xr:uid="{993B84B5-216D-42EF-8EFE-A9C5BEEF56F5}"/>
-    <hyperlink ref="I100" r:id="rId338" xr:uid="{1346A92A-331C-4CBD-9859-B71E1AEFCF5D}"/>
-    <hyperlink ref="I101" r:id="rId339" xr:uid="{FE0929C7-E7D3-466A-B5B3-1D1A0C3FBA8C}"/>
-    <hyperlink ref="I102" r:id="rId340" xr:uid="{3BFF1825-A110-43DD-A9A9-FE5C3E09D2DE}"/>
-    <hyperlink ref="I103" r:id="rId341" xr:uid="{B6440620-3133-43E7-953C-5CE2D6C39B7A}"/>
-    <hyperlink ref="I104" r:id="rId342" xr:uid="{014FA49D-3440-4FE5-A162-7027E8B0E68B}"/>
-    <hyperlink ref="I105" r:id="rId343" xr:uid="{666D9D31-42EC-4964-AA17-0E1900ADDC4F}"/>
-    <hyperlink ref="I106" r:id="rId344" xr:uid="{938E766F-2412-46B7-BCBD-9D148DD5EBFA}"/>
-    <hyperlink ref="I107" r:id="rId345" xr:uid="{76FBDA7D-D2B9-4234-9A59-BEC2C1A26CFB}"/>
-    <hyperlink ref="I108" r:id="rId346" display="https://ugburzenin.pl/" xr:uid="{120471C6-BA23-4CF8-9394-CF7D6DC0B965}"/>
-    <hyperlink ref="I109" r:id="rId347" display="https://ugburzenin.pl/" xr:uid="{DF385A95-6868-42B5-93F7-C0FC40E9AB88}"/>
-    <hyperlink ref="I112" r:id="rId348" display="https://www.umsieradz.finn.pl/" xr:uid="{89203DAC-865C-492C-990F-D5BD58CCC98E}"/>
-    <hyperlink ref="D113" r:id="rId349" xr:uid="{D8988699-622B-47E5-B171-208FFC58593F}"/>
-    <hyperlink ref="D114" r:id="rId350" xr:uid="{3C580038-C53A-4E0F-9E2F-C16AEB5FEECC}"/>
-    <hyperlink ref="I113" r:id="rId351" xr:uid="{41D0B09E-6382-4D28-B5F4-676925ACB245}"/>
-    <hyperlink ref="I114" r:id="rId352" display="https://www.brzeznio.finn.pl/" xr:uid="{1741B6B9-93E4-4BD8-99D0-499114EADF9E}"/>
-    <hyperlink ref="I115" r:id="rId353" display="http://bip.gminakg.pl/" xr:uid="{9E0DF74C-D315-4CB7-8351-8EB7F7513B9E}"/>
-    <hyperlink ref="I116" r:id="rId354" display="http://bip.gminakg.pl/" xr:uid="{2159D8D9-EADE-4015-9A22-1E376D3074F9}"/>
-    <hyperlink ref="D121" r:id="rId355" xr:uid="{3B993C5D-34D7-4B87-99A8-3E11CF5D6007}"/>
-    <hyperlink ref="D122" r:id="rId356" xr:uid="{BC0F432D-FFCB-40DE-AC35-5423787F9B35}"/>
-    <hyperlink ref="I121" r:id="rId357" display="http://www.bip.marciszow.pl/" xr:uid="{3B0470CB-663B-46AF-89C7-C417401D7F32}"/>
-    <hyperlink ref="I122" r:id="rId358" display="http://www.bip.marciszow.pl/" xr:uid="{AE9B1AE6-D9A8-442B-9F18-C2C272B2B394}"/>
-    <hyperlink ref="I123" r:id="rId359" xr:uid="{72DC6953-7814-4B19-9F2F-68D5CA395802}"/>
-    <hyperlink ref="I124" r:id="rId360" xr:uid="{460A433D-015F-4CE3-B7EA-2E7DB77797AA}"/>
-    <hyperlink ref="I125" r:id="rId361" xr:uid="{332894DE-AFE6-4FDB-ABFD-C3D9B487C906}"/>
-    <hyperlink ref="I126" r:id="rId362" xr:uid="{C1268C8D-EC6D-4BEA-B667-51F668992727}"/>
-    <hyperlink ref="I127" r:id="rId363" xr:uid="{E68C45A4-0F2D-4E27-AE90-0E09AA68A449}"/>
-    <hyperlink ref="I128" r:id="rId364" xr:uid="{33C1025B-F268-425A-8AEC-1D09C9CA6F9E}"/>
-    <hyperlink ref="I130" r:id="rId365" xr:uid="{C2DFAF9B-9163-44F3-9E5E-175A3F75D616}"/>
-    <hyperlink ref="I131" r:id="rId366" xr:uid="{7365EA0A-A650-4968-B6A1-7711A2601346}"/>
-    <hyperlink ref="I132" r:id="rId367" xr:uid="{50831835-C4EE-48B5-BDDE-D8131A37C509}"/>
-    <hyperlink ref="I133" r:id="rId368" xr:uid="{201549E1-43C9-4340-943E-A596FB73CDE8}"/>
-    <hyperlink ref="I134" r:id="rId369" display="http://bip.lewin-klodzki.pl/" xr:uid="{888067DF-7F51-4EB5-A467-8035ADD6D63C}"/>
-    <hyperlink ref="I135" r:id="rId370" display="http://bip.lewin-klodzki.pl/" xr:uid="{FCBB1A4D-E902-4CAA-8FD5-9BAE12BC457C}"/>
-    <hyperlink ref="I136" r:id="rId371" xr:uid="{0C1B5324-702C-45CD-B58A-BAF3EE876751}"/>
-    <hyperlink ref="I137" r:id="rId372" xr:uid="{81CE5744-3C26-4B2B-8130-AA90A01093CB}"/>
-    <hyperlink ref="I138" r:id="rId373" xr:uid="{5D257AA6-8D98-4C84-90D3-C565AC6687BD}"/>
-    <hyperlink ref="I139" r:id="rId374" xr:uid="{0CADABE7-A3BE-4F6A-8DDA-6AE4A1F58169}"/>
-    <hyperlink ref="I140" r:id="rId375" xr:uid="{3513F983-B0D4-493F-915D-9E5FD13AB4DA}"/>
-    <hyperlink ref="I141" r:id="rId376" xr:uid="{E67F39F4-9F73-442D-8C1C-5F00E1BBD51D}"/>
-    <hyperlink ref="I142" r:id="rId377" xr:uid="{B1648468-012E-42F3-9CA0-3A695BC95D3D}"/>
-    <hyperlink ref="I147" r:id="rId378" xr:uid="{F7291D9B-8B75-455C-9473-1855C8FE2FC7}"/>
-    <hyperlink ref="I148" r:id="rId379" xr:uid="{B3DDE593-1BE2-4C5A-8B5C-A5EBCEF50F4A}"/>
-    <hyperlink ref="I151" r:id="rId380" display="http://www.bip.krotoszyce.pl/" xr:uid="{8578ADA0-36C0-4B44-9A2E-034A6BEF4B77}"/>
-    <hyperlink ref="I152" r:id="rId381" xr:uid="{2D0D447F-5C02-4EC0-9794-3A4FA563F387}"/>
-    <hyperlink ref="I154" r:id="rId382" display="http://www.bip.legnickiepole.pl/" xr:uid="{7B6FD824-33ED-4212-AE36-33AB2B271480}"/>
-    <hyperlink ref="I155" r:id="rId383" display="http://www.bip.legnickiepole.pl/" xr:uid="{D60088D9-72D1-4D1A-9585-39EB1BFB6869}"/>
-    <hyperlink ref="I156" r:id="rId384" xr:uid="{C1BA6E92-3770-4E3A-AAC9-825A13FCF282}"/>
-    <hyperlink ref="I167" r:id="rId385" display="http://www.bip.ruja.pl/" xr:uid="{BEC48DB0-6625-467A-A4F7-DC75EFEF6007}"/>
-    <hyperlink ref="I168" r:id="rId386" xr:uid="{5D3FB963-AEB6-43C9-92A3-F1057CC86FC3}"/>
-    <hyperlink ref="I169" r:id="rId387" xr:uid="{E1BBC2B0-A1AF-4547-AB77-1FAA4DA09901}"/>
-    <hyperlink ref="D191" r:id="rId388" xr:uid="{A1024A48-3B6C-4852-B891-B61524415D73}"/>
-    <hyperlink ref="D192" r:id="rId389" xr:uid="{32D778DB-3973-412C-82BC-A464A8DFCA3A}"/>
-    <hyperlink ref="D193" r:id="rId390" xr:uid="{E5C492B1-4578-4CA4-985F-BA1DB8681E00}"/>
-    <hyperlink ref="I194" r:id="rId391" xr:uid="{FFB2038F-8252-4D47-887C-CD5B97EDC8F1}"/>
-    <hyperlink ref="I195" r:id="rId392" xr:uid="{B71C6D71-C9F7-47B6-BCEA-0484670C47CC}"/>
-    <hyperlink ref="I196" r:id="rId393" xr:uid="{4CF8AB05-BCFB-47CE-9F20-918C2BF2E46D}"/>
-    <hyperlink ref="I197" r:id="rId394" xr:uid="{DEEEF176-0441-455A-9DD8-0C5C06AEC9AF}"/>
-    <hyperlink ref="I198" r:id="rId395" xr:uid="{BE8266C7-D7F1-4F2B-A417-32E414181E8B}"/>
-    <hyperlink ref="I199" r:id="rId396" xr:uid="{41817245-D303-4C21-9BC1-A17493BAEA97}"/>
-    <hyperlink ref="I200" r:id="rId397" xr:uid="{F46458E4-DF49-44E3-80A8-FAD296087F2D}"/>
-    <hyperlink ref="I201" r:id="rId398" xr:uid="{133EAE4B-F972-4E75-A681-77AC400954B5}"/>
-    <hyperlink ref="I202" r:id="rId399" xr:uid="{34A8437F-C2C9-4D0B-97AC-A4929FE7A113}"/>
-    <hyperlink ref="I203" r:id="rId400" xr:uid="{EFC10180-D951-43F7-BD0B-CDAC9051AF11}"/>
-    <hyperlink ref="I179" r:id="rId401" display="http://bip.ugluban.nv.pl/" xr:uid="{0789C5B9-7E8F-41AB-BFB8-F74EC45B4404}"/>
-    <hyperlink ref="I180" r:id="rId402" display="http://bip.ugluban.nv.pl/" xr:uid="{CC4463F3-57DD-4032-A802-4EAB8AFD474C}"/>
-    <hyperlink ref="I217" r:id="rId403" xr:uid="{B0606AAB-FD1A-464D-BF3D-462901427169}"/>
-    <hyperlink ref="I218" r:id="rId404" xr:uid="{B20154FA-5179-4985-BA60-87BDE9D89AE4}"/>
-    <hyperlink ref="I219" r:id="rId405" display="https://idumolesnica.bip.gov.pl/" xr:uid="{C49F3076-A73C-42A1-BDD4-013A4C8E0766}"/>
-    <hyperlink ref="I221" r:id="rId406" xr:uid="{430C6BC8-DA8A-4C92-9B14-554F368E6D63}"/>
-    <hyperlink ref="I222" r:id="rId407" xr:uid="{2E03B3C8-0BEC-4C03-8170-DBA6A0C6C16F}"/>
-    <hyperlink ref="I223" r:id="rId408" xr:uid="{7DD346FE-4E85-4FE8-A1A0-F6D84AD9F8B2}"/>
-    <hyperlink ref="I224" r:id="rId409" xr:uid="{2E8DBCBB-0405-4F41-9079-B0D454BC2E53}"/>
-    <hyperlink ref="I226" r:id="rId410" xr:uid="{061C157D-8159-4A22-B5E6-153372FD320D}"/>
-    <hyperlink ref="I228" r:id="rId411" xr:uid="{680C298E-2486-43C0-8429-5EB9AD1BC4F0}"/>
-    <hyperlink ref="I229" r:id="rId412" xr:uid="{2E5B3527-40C2-4F5D-A224-3D374292E64B}"/>
-    <hyperlink ref="I230" r:id="rId413" xr:uid="{DC9BEE97-19B1-4D96-B201-C5ECE5FA5661}"/>
-    <hyperlink ref="I231" r:id="rId414" xr:uid="{6B13A641-3736-4946-83D3-F168D10D8836}"/>
-    <hyperlink ref="I232" r:id="rId415" xr:uid="{5CD27A07-79B2-41E8-A757-10D5392A6C5F}"/>
-    <hyperlink ref="D236" r:id="rId416" xr:uid="{F0AE71E1-9889-4A34-95EE-FA7D8741508B}"/>
-    <hyperlink ref="I237" r:id="rId417" xr:uid="{9C65EABD-23AD-4928-A538-BDE8A8CA0A33}"/>
-    <hyperlink ref="I238" r:id="rId418" xr:uid="{583E4371-DCBD-44C1-8BC2-A769D45837E1}"/>
-    <hyperlink ref="I247" r:id="rId419" xr:uid="{5E1A355E-8EDD-44DC-89CD-FA76D4351AA1}"/>
-    <hyperlink ref="I255" r:id="rId420" xr:uid="{D2F75A73-87FE-4223-BF04-D9BBDAE3DDCD}"/>
-    <hyperlink ref="I256" r:id="rId421" xr:uid="{C5C21D5F-826A-461F-ADDF-B7F7601ABFA1}"/>
-    <hyperlink ref="I257" r:id="rId422" xr:uid="{102133DC-3FBC-4B49-93E7-CFDE3E9CE8E6}"/>
-    <hyperlink ref="I41" r:id="rId423" xr:uid="{0D9D37E0-2398-4228-A692-E744838134BA}"/>
-    <hyperlink ref="I14" r:id="rId424" xr:uid="{2EC9E0CA-3F9E-4EFA-8387-19C05BA226EA}"/>
-    <hyperlink ref="I259" r:id="rId425" display="http://bip.gaworzyce.com.pl/" xr:uid="{846D5AC8-EEE2-44D2-95C1-B24F121D0B5E}"/>
-    <hyperlink ref="I260" r:id="rId426" display="http://bip.gaworzyce.com.pl/" xr:uid="{68C02B18-36AB-4118-97FA-4F2EB3328F58}"/>
-    <hyperlink ref="I261" r:id="rId427" display="http://bip.gaworzyce.com.pl/" xr:uid="{7AFC8F37-04E1-415E-ADFA-66EA5A5E73A4}"/>
-    <hyperlink ref="I262" r:id="rId428" display="http://bip.gaworzyce.com.pl/" xr:uid="{BC3D0C7B-1D21-4C1D-AF9B-DD0306EC0488}"/>
-    <hyperlink ref="I263" r:id="rId429" display="http://bip.radwanice.pl/" xr:uid="{73AA7F3C-AD3B-433A-85FE-718851FDEE64}"/>
-    <hyperlink ref="I264" r:id="rId430" display="http://bip.radwanice.pl/" xr:uid="{40177E78-E4C4-4DD9-ABEC-A54C058F61D7}"/>
-    <hyperlink ref="I265" r:id="rId431" xr:uid="{DC83173C-BCA6-4865-8897-212AF5115277}"/>
-    <hyperlink ref="I266" r:id="rId432" display="https://bip.gmstrzelin.finn.pl/" xr:uid="{4ACBDF12-9D0C-471F-B738-CBF837FC0ACB}"/>
-    <hyperlink ref="I267" r:id="rId433" display="https://bip.gmstrzelin.finn.pl/" xr:uid="{D8A2E25B-4702-4FA5-B2E1-0F38465C1731}"/>
-    <hyperlink ref="I270" r:id="rId434" xr:uid="{DB55A5D6-DFC1-401D-BFD9-ECF5B57EA4F8}"/>
-    <hyperlink ref="I271" r:id="rId435" display="http://kondratowice.biuletyn.net/" xr:uid="{318BBC9E-58FF-4D53-B4F9-607B22577A6D}"/>
-    <hyperlink ref="I272" r:id="rId436" display="http://kondratowice.biuletyn.net/" xr:uid="{4292741A-F172-4885-B983-EA2E311EA29E}"/>
-    <hyperlink ref="I273" r:id="rId437" display="http://kondratowice.biuletyn.net/" xr:uid="{65289CF6-5983-4C86-A85D-285982096227}"/>
-    <hyperlink ref="I279" r:id="rId438" display="http://bip.malczyce.wroc.pl/" xr:uid="{CA0FADF1-82E3-4487-88A1-D1353F65F625}"/>
-    <hyperlink ref="I284" r:id="rId439" xr:uid="{D4FE3775-11EE-4064-A44E-1A23B56491F6}"/>
-    <hyperlink ref="I285" r:id="rId440" xr:uid="{5E5105E5-2A5E-4135-BDFC-CA9C36B62294}"/>
-    <hyperlink ref="I286" r:id="rId441" xr:uid="{E13D074F-F047-4295-9C1F-A501C1E26F3B}"/>
-    <hyperlink ref="I287" r:id="rId442" xr:uid="{4B62B560-53B6-4E2D-86FF-F6759DB0989E}"/>
-    <hyperlink ref="D292" r:id="rId443" xr:uid="{2C03D5AB-E2E3-4FAC-83B5-AD280DA7EADD}"/>
-    <hyperlink ref="D293" r:id="rId444" xr:uid="{FC934566-40DC-4203-9921-28DEB2A09344}"/>
-    <hyperlink ref="D294" r:id="rId445" xr:uid="{C4C01D80-1071-42AB-9DA0-8D62354C5EDB}"/>
-    <hyperlink ref="D295" r:id="rId446" xr:uid="{D101B2D0-4EAA-470C-8C45-537E317CD035}"/>
-    <hyperlink ref="D296" r:id="rId447" xr:uid="{E3D8750C-F95C-467B-BA40-BA7E029939E4}"/>
-    <hyperlink ref="D297" r:id="rId448" xr:uid="{3995930B-F8DE-41D8-96FE-09791D88F245}"/>
-    <hyperlink ref="D298" r:id="rId449" xr:uid="{EA0435D7-4DC2-4C2D-B05E-DAE584B004C6}"/>
-    <hyperlink ref="D301" r:id="rId450" xr:uid="{DA44E536-58B0-4185-BC03-1645BE4A3780}"/>
-    <hyperlink ref="D302" r:id="rId451" xr:uid="{CCE98078-B0F6-4920-AAD9-98FF1D2B8A36}"/>
-    <hyperlink ref="D303" r:id="rId452" xr:uid="{7F3ADC8F-B7C0-4AA0-9536-3B04F08A5D1A}"/>
-    <hyperlink ref="D304" r:id="rId453" xr:uid="{265A3247-C2E3-42D8-A2FA-1D2AE1E20243}"/>
-    <hyperlink ref="D305" r:id="rId454" xr:uid="{B763D81E-A93A-4443-869D-B9D0745829EF}"/>
-    <hyperlink ref="D306" r:id="rId455" xr:uid="{81ECD95E-CCA1-4437-A491-966BF08702B7}"/>
-    <hyperlink ref="D307" r:id="rId456" xr:uid="{84FACE69-8058-4094-A714-565467BC7ECC}"/>
-    <hyperlink ref="D308" r:id="rId457" xr:uid="{31E67A0C-3DA7-4CF3-8531-E1759AAFB8A0}"/>
-    <hyperlink ref="D309" r:id="rId458" xr:uid="{1A1BDAAC-232A-4BE3-B810-C9FC4527D8A6}"/>
-    <hyperlink ref="D311" r:id="rId459" xr:uid="{EC2F75B4-2516-4396-9D21-FFAA6ABB7274}"/>
-    <hyperlink ref="D310" r:id="rId460" xr:uid="{D1D30D27-A89F-4427-8094-8A3596A8F909}"/>
-    <hyperlink ref="D312" r:id="rId461" xr:uid="{136509D6-5CB3-4D42-9797-FB7BE6F1C57B}"/>
-    <hyperlink ref="D313" r:id="rId462" xr:uid="{C307043F-BB74-4338-80C5-C15D1CF86F7E}"/>
-    <hyperlink ref="D314" r:id="rId463" xr:uid="{008FA677-1B5C-4158-A384-8FA5985709AD}"/>
-    <hyperlink ref="D315" r:id="rId464" xr:uid="{9ACCCD07-8C86-4D12-AF53-39C439071544}"/>
-    <hyperlink ref="D316" r:id="rId465" xr:uid="{14EBB182-5BEE-40B6-8CC5-170CAA0D29D2}"/>
-    <hyperlink ref="D317" r:id="rId466" xr:uid="{E7C113BB-311F-4A1B-A1DA-CC8692FD8777}"/>
-    <hyperlink ref="D318" r:id="rId467" xr:uid="{498648AA-723F-46FD-A94E-AD79EEEAC7B9}"/>
-    <hyperlink ref="D319" r:id="rId468" xr:uid="{F580A17C-F06C-406A-821C-4B7FB65699F8}"/>
-    <hyperlink ref="D320" r:id="rId469" xr:uid="{3340F2A1-0751-4FDB-9444-6A8C5A54ED5B}"/>
-    <hyperlink ref="D321" r:id="rId470" xr:uid="{29C2DAA4-1A92-4064-A403-3EB4ADAD3743}"/>
-    <hyperlink ref="D322" r:id="rId471" xr:uid="{675A6D63-632D-4B0E-9A65-9C5A25EDBC0A}"/>
-    <hyperlink ref="D323" r:id="rId472" xr:uid="{44967F31-EF6E-49F0-B2A6-A3306F63DE4C}"/>
-    <hyperlink ref="D324" r:id="rId473" xr:uid="{5C803274-5D34-4F6C-A79C-A3DCEDB36249}"/>
-    <hyperlink ref="D325" r:id="rId474" xr:uid="{D4B0192A-1E93-4122-9B9C-9232145821A8}"/>
-    <hyperlink ref="D326" r:id="rId475" xr:uid="{1E307D9D-7372-4C22-A8AF-D6F49A9448BD}"/>
-    <hyperlink ref="D327" r:id="rId476" xr:uid="{B162A04E-4EC2-4464-A98E-3F26295CB854}"/>
-    <hyperlink ref="D328" r:id="rId477" xr:uid="{F860606E-A657-44D7-8130-C9534AEF3443}"/>
-    <hyperlink ref="D329" r:id="rId478" xr:uid="{EC874721-78E4-422D-99C7-4300466283BF}"/>
-    <hyperlink ref="D330" r:id="rId479" xr:uid="{357E3E16-A664-4809-8174-485F7A6A8486}"/>
-    <hyperlink ref="D331" r:id="rId480" xr:uid="{23152A7E-2BB2-4057-BB8E-4043938558ED}"/>
-    <hyperlink ref="D332" r:id="rId481" xr:uid="{6D02611E-992F-4A4F-9248-9E0014ACFE4A}"/>
-    <hyperlink ref="D333" r:id="rId482" xr:uid="{B1ED958D-A4D3-46E4-923E-E8AFB805A892}"/>
-    <hyperlink ref="D334" r:id="rId483" xr:uid="{5500A5CE-8022-4865-8A9A-CA5F300EA4B6}"/>
-    <hyperlink ref="D335" r:id="rId484" xr:uid="{D25B223F-A023-48DA-9B5A-5A501371008F}"/>
-    <hyperlink ref="D336" r:id="rId485" xr:uid="{4C56DBA7-0DD1-4FC9-99AF-A072E5B0416D}"/>
-    <hyperlink ref="D337" r:id="rId486" xr:uid="{6F461C77-1026-450E-8656-DEE4A08D2F22}"/>
-    <hyperlink ref="D338" r:id="rId487" xr:uid="{19DB19BD-6A4A-4424-92D2-A777F94E2B15}"/>
-    <hyperlink ref="D339" r:id="rId488" xr:uid="{DBC4C221-AB0C-4709-BEC8-C512203D2168}"/>
-    <hyperlink ref="D340" r:id="rId489" xr:uid="{7E888991-639F-4230-A5E9-4E9C77054B00}"/>
-    <hyperlink ref="D341" r:id="rId490" xr:uid="{1B6825A7-901D-4549-84D0-B0ED35903FEF}"/>
-    <hyperlink ref="D342" r:id="rId491" xr:uid="{9B45FC82-5112-45FA-9B69-B1FE565432DC}"/>
-    <hyperlink ref="D343" r:id="rId492" xr:uid="{3C9ABBDD-EC7D-4E59-ACA8-62D6F2B00AF5}"/>
-    <hyperlink ref="D344" r:id="rId493" xr:uid="{FAD7FD08-FFA6-4E73-B79D-EED6272247B2}"/>
-    <hyperlink ref="D345" r:id="rId494" xr:uid="{B6A115B0-5825-4B54-AFF9-D1865C120662}"/>
-    <hyperlink ref="D346" r:id="rId495" xr:uid="{CB824B96-B726-4298-B165-C42F579AD5F1}"/>
-    <hyperlink ref="D347" r:id="rId496" xr:uid="{ACD9993B-3989-4F5D-8A11-845CD44AFF80}"/>
-    <hyperlink ref="D348" r:id="rId497" xr:uid="{A7392ACE-453F-4BC2-BBB7-2BBBAFAE0F04}"/>
-    <hyperlink ref="D349" r:id="rId498" xr:uid="{F30C2CD4-6BB3-4E6C-8B2A-42FCEF56754B}"/>
-    <hyperlink ref="D350" r:id="rId499" xr:uid="{618D8C1D-D44D-4154-AEAD-E3E266E385A7}"/>
-    <hyperlink ref="D351" r:id="rId500" xr:uid="{61B74FA5-D2BA-4120-A11F-3EAA65FB0730}"/>
-    <hyperlink ref="D352" r:id="rId501" xr:uid="{1388DFB6-8CA0-422D-BCC4-85338B9F133E}"/>
-    <hyperlink ref="I292" r:id="rId502" xr:uid="{1B26891C-B271-4571-BCA8-49799C1681A8}"/>
-    <hyperlink ref="I294" r:id="rId503" xr:uid="{C297FFCB-4CBA-484B-BE6F-FDB1AABD4308}"/>
-    <hyperlink ref="I295" r:id="rId504" xr:uid="{2022FFDE-E9BD-4937-85FB-604DE722058A}"/>
-    <hyperlink ref="I299" r:id="rId505" xr:uid="{06FBCE98-EE5C-48E3-BF7C-3907554988A4}"/>
-    <hyperlink ref="D299" r:id="rId506" xr:uid="{A469CE8F-216B-4E7C-BF7F-A223D74446BD}"/>
-    <hyperlink ref="D300" r:id="rId507" xr:uid="{93C2CAB7-0EB5-46E3-97E5-F21FAD31802B}"/>
-    <hyperlink ref="I300" r:id="rId508" xr:uid="{83C7A27A-9FC1-44E3-BF3F-5A3FC1AD49FB}"/>
-    <hyperlink ref="I301" r:id="rId509" xr:uid="{27D34576-2D59-49C4-9F06-7045320CAB36}"/>
-    <hyperlink ref="I302" r:id="rId510" xr:uid="{FFDE8A08-49EB-407A-99C1-EB78ED5EEF38}"/>
-    <hyperlink ref="I303" r:id="rId511" xr:uid="{DAD35D11-5A46-4B55-A900-F786A635632F}"/>
-    <hyperlink ref="I322" r:id="rId512" display="http://bip.oborniki-slaskie.pl/" xr:uid="{1A3A783E-C731-43CD-8343-5D37E05A4C28}"/>
-    <hyperlink ref="I323" r:id="rId513" display="http://bip.oborniki-slaskie.pl/" xr:uid="{79F7EEAE-A161-4208-974D-49DD8E53E77B}"/>
-    <hyperlink ref="I324" r:id="rId514" display="http://bip.oborniki-slaskie.pl/" xr:uid="{C56F500E-466D-4810-807C-0307079673EA}"/>
-    <hyperlink ref="I325" r:id="rId515" display="http://bip.oborniki-slaskie.pl/" xr:uid="{044FA9B8-B303-49F9-ACA5-C9210A468D4B}"/>
-    <hyperlink ref="I328" r:id="rId516" xr:uid="{C09A4E0C-87E1-4819-9932-E9ECCF693F6B}"/>
-    <hyperlink ref="I330" r:id="rId517" xr:uid="{5DAC6585-06BD-4A2E-B039-9B5E5F6ECA9A}"/>
-    <hyperlink ref="I333" r:id="rId518" xr:uid="{E76CB6BE-1760-4D72-96DA-1CB2EDCD4C47}"/>
-    <hyperlink ref="I334:I352" r:id="rId519" display="https://zmigrod.ibip.wroc.pl/public/" xr:uid="{6295C56C-9FC2-4F83-A666-72785D1E1F82}"/>
-    <hyperlink ref="D353" r:id="rId520" xr:uid="{88735761-3373-43C3-A993-5D08FF6029BB}"/>
-    <hyperlink ref="D354" r:id="rId521" xr:uid="{B20DE023-7422-4083-BA2B-A41EFCDF4C15}"/>
-    <hyperlink ref="D355" r:id="rId522" xr:uid="{0A1D5D26-B2B3-42FB-8E43-AAB5B745EBDB}"/>
-    <hyperlink ref="D356" r:id="rId523" xr:uid="{95916085-2C70-4F64-8EA4-AC225A32A54B}"/>
-    <hyperlink ref="D357" r:id="rId524" xr:uid="{C8FEEF3C-3055-4666-BE8D-B3108F5FEBB1}"/>
-    <hyperlink ref="D358" r:id="rId525" xr:uid="{FCA47CE4-B271-4FEE-A8BA-D9954BDD3CF4}"/>
-    <hyperlink ref="D359" r:id="rId526" xr:uid="{7C49782A-0593-4B27-ABD9-636D703CD0E0}"/>
-    <hyperlink ref="D360" r:id="rId527" xr:uid="{D77CC778-B50C-4706-9FC5-C2CA6150AA4C}"/>
-    <hyperlink ref="I359" r:id="rId528" xr:uid="{ED096C0B-BEE3-4DEC-9AD8-465264DB79EF}"/>
-    <hyperlink ref="I360" r:id="rId529" xr:uid="{D964CDEB-C81E-4C08-ABD3-8AA83B09FC9A}"/>
-    <hyperlink ref="D361" r:id="rId530" xr:uid="{D845104F-800B-446F-AFE7-D1A743D3C339}"/>
-    <hyperlink ref="D362" r:id="rId531" xr:uid="{63C872A1-2D43-4E84-8037-22EDF74E4237}"/>
-    <hyperlink ref="D363" r:id="rId532" xr:uid="{F101B336-B003-4980-8C0B-9B5AF0829171}"/>
-    <hyperlink ref="D364" r:id="rId533" xr:uid="{18289133-68A0-436A-8AAD-03D8C5B395DA}"/>
-    <hyperlink ref="D365" r:id="rId534" xr:uid="{C3EE7FE0-3B96-4603-B855-6C56997025C5}"/>
-    <hyperlink ref="D366" r:id="rId535" xr:uid="{588C802C-F6FB-4C5E-91A9-9B812D54E368}"/>
-    <hyperlink ref="D367" r:id="rId536" xr:uid="{55574C2E-F364-4436-BB6F-E434A517B74C}"/>
-    <hyperlink ref="I367" r:id="rId537" xr:uid="{A47E8B41-A0B0-42C5-9A21-D416936965B4}"/>
-    <hyperlink ref="I364" r:id="rId538" display="http://bip.boguszow-gorce.pl/" xr:uid="{D4CC6BE4-7E89-436F-91B7-654B236C12B0}"/>
-    <hyperlink ref="I365" r:id="rId539" display="http://bip.boguszow-gorce.pl/" xr:uid="{D2AD10F3-EFD3-4A67-8820-84EC7554DFE5}"/>
-    <hyperlink ref="D368" r:id="rId540" xr:uid="{BD56DBB0-21E5-4D66-9026-33CC5328308A}"/>
-    <hyperlink ref="I42" r:id="rId541" xr:uid="{25BE374A-4F13-49EA-829D-EBA6C4CB239B}"/>
-    <hyperlink ref="I47" r:id="rId542" display="http://www.bip.kotla.pl/" xr:uid="{0D0BE855-86C3-4B52-9641-DA527A0F70F8}"/>
-    <hyperlink ref="I72" r:id="rId543" xr:uid="{61FA03B8-E2EB-4110-B9E7-BCF5594DADA0}"/>
-    <hyperlink ref="I143" r:id="rId544" xr:uid="{491F9761-038C-4AC9-A27C-F3352C70F109}"/>
-    <hyperlink ref="I144" r:id="rId545" xr:uid="{EE500070-63B8-4656-B6AF-F2C58E5212BC}"/>
-    <hyperlink ref="I146" r:id="rId546" xr:uid="{A78C17E2-7B94-4E81-A165-03810CF19099}"/>
-    <hyperlink ref="I171" r:id="rId547" xr:uid="{F1F48138-2F98-4BA0-B66D-2528C84511A6}"/>
-    <hyperlink ref="I234" r:id="rId548" xr:uid="{078DDB5F-6F58-4E1F-A477-7DC06A55C8CA}"/>
-    <hyperlink ref="I274" r:id="rId549" xr:uid="{F8AB3539-8B9B-49A9-85FF-5A71D0048BCA}"/>
-    <hyperlink ref="D369" r:id="rId550" xr:uid="{61DF3359-FE72-41B5-8EB6-D5C161CBC6F2}"/>
-    <hyperlink ref="D370" r:id="rId551" xr:uid="{654FF600-DF61-435B-BC40-3FD706924B05}"/>
-    <hyperlink ref="D371" r:id="rId552" xr:uid="{864663AF-7797-426C-9BD2-FF83D0A11116}"/>
-    <hyperlink ref="D372" r:id="rId553" xr:uid="{D74DFDFA-EF8B-4597-B12F-48C22C2BFF7C}"/>
-    <hyperlink ref="I371" r:id="rId554" display="https://bip.mieroszow.pl/" xr:uid="{2AFD789A-B926-4328-A299-5E3451A5B3F3}"/>
-    <hyperlink ref="I372" r:id="rId555" display="https://bip.mieroszow.pl/" xr:uid="{61A247A5-65DF-4A63-969F-26EEFAF813FB}"/>
-    <hyperlink ref="D373" r:id="rId556" xr:uid="{2C389B42-D911-455D-B118-B68B399037EE}"/>
-    <hyperlink ref="D374" r:id="rId557" xr:uid="{37F32469-5BD5-43CA-A25C-30B62BA29B8F}"/>
-    <hyperlink ref="D375" r:id="rId558" xr:uid="{5C396267-3EE0-4291-8DFA-B21D056AB854}"/>
-    <hyperlink ref="D376" r:id="rId559" xr:uid="{C51387EE-0E94-47F0-BFB5-AF321431BC70}"/>
-    <hyperlink ref="I373" r:id="rId560" xr:uid="{D3AC4EF1-A86F-4D06-817D-D830C1486EC9}"/>
-    <hyperlink ref="I374" r:id="rId561" xr:uid="{3F756D5D-6F63-4121-9036-F49CFB4DCAA6}"/>
-    <hyperlink ref="I375" r:id="rId562" xr:uid="{D714CAC9-E0F0-4225-821C-BE6FB3125574}"/>
-    <hyperlink ref="I376" r:id="rId563" xr:uid="{4079779D-D172-4BBA-A7A3-CE8AEB4FBABF}"/>
-    <hyperlink ref="D377" r:id="rId564" xr:uid="{74659AD4-4CDA-4583-8161-44599A4C0038}"/>
-    <hyperlink ref="D378" r:id="rId565" xr:uid="{8131A92B-EA0B-492A-BB3C-599A2C49C259}"/>
-    <hyperlink ref="I377" r:id="rId566" xr:uid="{B217754E-664C-4DB8-997E-5FC9D7EEFAB3}"/>
-    <hyperlink ref="I378" r:id="rId567" xr:uid="{151F278D-2D94-422B-AD0C-1BF38BF40904}"/>
-    <hyperlink ref="D379" r:id="rId568" xr:uid="{CFAB71AE-6DBE-4D17-BF41-804BE1F8A346}"/>
-    <hyperlink ref="I379" r:id="rId569" xr:uid="{E42E4E5F-F75A-4CE9-B36E-5531923E1C8F}"/>
-    <hyperlink ref="D380" r:id="rId570" xr:uid="{3E01970F-5891-4831-B751-25077BD5DA46}"/>
-    <hyperlink ref="I380" r:id="rId571" xr:uid="{FE5DA43D-A9BA-48AB-AC7A-7FF1234ADEBB}"/>
-    <hyperlink ref="D381" r:id="rId572" xr:uid="{642F9113-4747-4759-AF69-A15DDF59A001}"/>
-    <hyperlink ref="I381" r:id="rId573" display="http://bip.wolow.pl/" xr:uid="{37C97504-8E91-41D1-819F-5341C7F3B5C7}"/>
-    <hyperlink ref="I382" r:id="rId574" display="http://bip.wolow.pl/" xr:uid="{9491E841-F917-4F58-8F78-46B5E11791A2}"/>
-    <hyperlink ref="I383" r:id="rId575" display="http://bip.wolow.pl/" xr:uid="{4C30B637-1161-402A-95A9-90388B8FDBCF}"/>
-    <hyperlink ref="D382" r:id="rId576" xr:uid="{5C9F00A5-8E61-49FC-BC63-0F43A7AE047C}"/>
-    <hyperlink ref="D383" r:id="rId577" xr:uid="{EFBFFC6F-F06C-4C5D-A5E0-B41386FD1958}"/>
-    <hyperlink ref="D384" r:id="rId578" xr:uid="{3CA6B4DD-A4E3-4E17-B54E-30DD1CCFD268}"/>
-    <hyperlink ref="I384" r:id="rId579" xr:uid="{0B96172D-9D27-4430-8188-1B0975792D6F}"/>
-    <hyperlink ref="D385" r:id="rId580" xr:uid="{1E50EF8E-6E22-434C-A4D2-D9C238F2008A}"/>
-    <hyperlink ref="D386" r:id="rId581" xr:uid="{082EB87D-D5BB-43EB-B145-3A88DD1CEC32}"/>
-    <hyperlink ref="D387" r:id="rId582" xr:uid="{9E792CC3-5434-42A1-B977-AC53EE44FD8F}"/>
-    <hyperlink ref="I385" r:id="rId583" xr:uid="{C9384B3A-34FB-47FA-9D8C-BEEBBB3C120A}"/>
-    <hyperlink ref="I386" r:id="rId584" xr:uid="{15562A81-DECF-4456-ABE6-95ABB3ECA847}"/>
-    <hyperlink ref="I387" r:id="rId585" xr:uid="{8E23C784-6B9B-45C1-AD04-1FBC032F2765}"/>
-    <hyperlink ref="D388" r:id="rId586" xr:uid="{0D887DD1-09E1-4A8B-85CC-85B8AF8859EF}"/>
-    <hyperlink ref="D389" r:id="rId587" xr:uid="{F7C13857-F7B2-4A0C-96BC-4AEF3EFF057F}"/>
-    <hyperlink ref="I389" r:id="rId588" display="http://bip.katywroclawskie.pl/" xr:uid="{AFD115A9-3A03-478C-9582-61CADA60C73B}"/>
-    <hyperlink ref="D390" r:id="rId589" xr:uid="{4C4B696F-F7A0-4242-BA7D-A1AD2FF4CCE7}"/>
-    <hyperlink ref="D392" r:id="rId590" xr:uid="{2E406B0F-4CC5-42E7-AA3D-79BDBB5C9DDD}"/>
-    <hyperlink ref="D391" r:id="rId591" xr:uid="{4DDF002D-19AA-4E8F-8846-91F3796DDFA1}"/>
-    <hyperlink ref="I390" r:id="rId592" xr:uid="{ECFCC0BE-539D-4390-8E1D-24C813D741D3}"/>
-    <hyperlink ref="I392" r:id="rId593" xr:uid="{E50025C9-11E4-4AC0-B754-7FD4084F1721}"/>
-    <hyperlink ref="D393" r:id="rId594" xr:uid="{AB9DAEE0-7FC7-4982-AB0B-A0E16EB324E7}"/>
-    <hyperlink ref="I393" r:id="rId595" display="https://bip.sobotka.pl/" xr:uid="{F36E16CB-7457-4F3E-BEE2-6DB92A95DBF4}"/>
-    <hyperlink ref="D394" r:id="rId596" xr:uid="{416190A5-3E02-422B-81E5-4888868F1193}"/>
-    <hyperlink ref="I394" r:id="rId597" display="https://bip.sobotka.pl/" xr:uid="{3E9F8488-AAE5-4082-A371-D0478FC1A0DD}"/>
-    <hyperlink ref="D395" r:id="rId598" xr:uid="{79D73380-CFA8-4036-A468-8749AD0E1FB8}"/>
-    <hyperlink ref="D396" r:id="rId599" xr:uid="{49788947-E1F7-4CAF-BEF1-1769C0F59420}"/>
-    <hyperlink ref="D397" r:id="rId600" xr:uid="{271A5CFF-BD54-46AC-A5C7-ABC50F3F8065}"/>
-    <hyperlink ref="I396" r:id="rId601" xr:uid="{45DC646E-3C98-46E0-9149-58FEAE440C02}"/>
-    <hyperlink ref="I397" r:id="rId602" xr:uid="{72D1244D-FAEB-4653-A1D7-93E4CB064A7A}"/>
-    <hyperlink ref="D398" r:id="rId603" xr:uid="{5D9275CE-55F4-4A94-AF94-901DB3B71760}"/>
-    <hyperlink ref="D399" r:id="rId604" xr:uid="{5A007BCA-677E-40F2-B872-967894EE370C}"/>
-    <hyperlink ref="D400" r:id="rId605" xr:uid="{0B52C0D6-785C-40AD-BFD0-8AD46D3B0CEC}"/>
-    <hyperlink ref="I398" r:id="rId606" xr:uid="{1724758E-33B6-4A47-B55F-D390C854E0B0}"/>
-    <hyperlink ref="I399" r:id="rId607" xr:uid="{128BE0FE-49CE-4EF3-871E-4AFDDFA8A7C8}"/>
-    <hyperlink ref="I400" r:id="rId608" xr:uid="{FCCCEFE1-032C-4833-B01B-4B5D59923EE5}"/>
-    <hyperlink ref="D401" r:id="rId609" xr:uid="{37A1612D-AB51-4C4E-8CD9-B006E370DBE3}"/>
-    <hyperlink ref="D402" r:id="rId610" xr:uid="{327A992E-BB74-4F92-B9B4-9A030FB1CA97}"/>
-    <hyperlink ref="D403" r:id="rId611" xr:uid="{35D52CF2-DE8A-4760-9FCD-B80239A1B2D6}"/>
-    <hyperlink ref="I403" r:id="rId612" xr:uid="{D5B09E1B-D147-4E43-9AF8-1A0AD5C5F2DC}"/>
-    <hyperlink ref="D404" r:id="rId613" xr:uid="{C4CEC2FE-ACC2-411F-976A-210ECC7B0BCA}"/>
-    <hyperlink ref="D405" r:id="rId614" xr:uid="{074E30E2-CEDE-4572-95DC-8405B7B373DA}"/>
-    <hyperlink ref="D406" r:id="rId615" xr:uid="{7355FFAD-2976-4218-A865-35EAD2B40374}"/>
-    <hyperlink ref="D407" r:id="rId616" xr:uid="{581363DD-B5F4-4C4F-8200-8175B8B6F351}"/>
-    <hyperlink ref="D408" r:id="rId617" xr:uid="{D88BAF0D-F700-40B9-8750-68D574BF43B2}"/>
-    <hyperlink ref="D409" r:id="rId618" xr:uid="{338F228B-B3C8-4777-A36C-4EFF201C4E70}"/>
-    <hyperlink ref="D410" r:id="rId619" xr:uid="{5DF1A48B-F533-445C-9AB9-70966E170657}"/>
-    <hyperlink ref="D411" r:id="rId620" xr:uid="{A19C342C-DBFF-4E01-A2B9-BD27EBE40721}"/>
-    <hyperlink ref="D412" r:id="rId621" xr:uid="{13DBB88A-CA3D-4EF5-81DC-981726214F5C}"/>
-    <hyperlink ref="D413" r:id="rId622" xr:uid="{B8B53141-7965-4CA3-A972-8C1D6B6C767D}"/>
-    <hyperlink ref="D414" r:id="rId623" xr:uid="{FFCE4346-C268-42EF-B9A1-E23427D845B9}"/>
-    <hyperlink ref="D415" r:id="rId624" xr:uid="{EBCB755E-79A6-4583-87BD-C0A8B4787FD1}"/>
-    <hyperlink ref="D419" r:id="rId625" xr:uid="{ED7ED154-DC75-4D52-98F7-64B6B6CCC542}"/>
-    <hyperlink ref="D420" r:id="rId626" xr:uid="{1396A81C-17E8-47F2-9559-CDA4467C27F7}"/>
-    <hyperlink ref="D421" r:id="rId627" xr:uid="{935B2686-1904-4722-8737-E060FCAFD8E1}"/>
-    <hyperlink ref="D422" r:id="rId628" xr:uid="{6FE32050-7FB1-4BC9-9610-2E99F408ACC3}"/>
-    <hyperlink ref="D423" r:id="rId629" xr:uid="{886C07C6-2EB0-469C-8DDB-54AE1CAF3293}"/>
-    <hyperlink ref="D424" r:id="rId630" xr:uid="{37AF22BA-DE29-4197-B546-D643ABE9C1E5}"/>
-    <hyperlink ref="D425" r:id="rId631" xr:uid="{B2A811F4-9573-49AB-B660-BC719B213117}"/>
-    <hyperlink ref="D426" r:id="rId632" xr:uid="{CDA3C35D-B168-4C09-9ED2-14298D9FC001}"/>
-    <hyperlink ref="D427" r:id="rId633" xr:uid="{894AC3F3-7369-4662-9FF6-C49D4DC13539}"/>
-    <hyperlink ref="D428" r:id="rId634" xr:uid="{844BC53C-D0FB-4EEF-90AC-DAE4FAC8552E}"/>
-    <hyperlink ref="D429" r:id="rId635" xr:uid="{F9307360-2C87-41D6-B5C6-839F81416E97}"/>
-    <hyperlink ref="D430" r:id="rId636" xr:uid="{640BA4EE-DDA3-4B6A-A184-5EE60B928A2B}"/>
-    <hyperlink ref="D431" r:id="rId637" xr:uid="{C2A7DB06-54FD-4D7A-BD8F-7CE6D6AEAFF6}"/>
-    <hyperlink ref="D432" r:id="rId638" xr:uid="{071E6961-0E4E-446F-8FBC-9D406B372EC9}"/>
-    <hyperlink ref="D433" r:id="rId639" xr:uid="{2AF60F6E-F640-4851-BF59-A8867E405662}"/>
-    <hyperlink ref="D434" r:id="rId640" xr:uid="{1055E9A9-67E5-4035-84D8-9712567253A4}"/>
-    <hyperlink ref="D435" r:id="rId641" xr:uid="{0857C703-4FF6-4206-86A6-CAE50CF9B030}"/>
-    <hyperlink ref="D436" r:id="rId642" xr:uid="{5906534B-9D4F-430D-A832-14CFC5D45F14}"/>
-    <hyperlink ref="D437" r:id="rId643" xr:uid="{5D7AC507-06EB-474A-8C1C-0D64F16BC20E}"/>
-    <hyperlink ref="D438" r:id="rId644" xr:uid="{C1C2FDB9-17AA-454C-936B-E4ED5E11EFD9}"/>
-    <hyperlink ref="D439" r:id="rId645" xr:uid="{4B05BFEC-6F6B-45F0-BCA1-E58DB816ABBE}"/>
-    <hyperlink ref="D440" r:id="rId646" xr:uid="{284532BE-B61E-4FBD-A133-6D1EA1ADE57B}"/>
-    <hyperlink ref="D442" r:id="rId647" xr:uid="{D8FA07A0-3C85-4455-8E18-64481DE73487}"/>
-    <hyperlink ref="D443" r:id="rId648" xr:uid="{842F532C-A357-4729-B595-5DFBC8BF95B6}"/>
-    <hyperlink ref="D444" r:id="rId649" xr:uid="{2F31A4B8-31B3-4666-A168-8AC2BEE20535}"/>
-    <hyperlink ref="D445" r:id="rId650" xr:uid="{E17A8CE8-CA16-427A-9DEF-B9E3DC617635}"/>
-    <hyperlink ref="D446" r:id="rId651" xr:uid="{9FD72A94-3329-4F7C-94BE-04C8C3E5ECE8}"/>
-    <hyperlink ref="D447" r:id="rId652" xr:uid="{B9E2919A-FAFF-4A47-A38B-C4A4D81AABC4}"/>
-    <hyperlink ref="D448" r:id="rId653" xr:uid="{58CE3A70-F22F-41CA-BA34-857D33C997AB}"/>
-    <hyperlink ref="D449" r:id="rId654" xr:uid="{191A3B2D-5E76-4510-8690-586064534DFF}"/>
-    <hyperlink ref="D450" r:id="rId655" xr:uid="{BD31190C-EB1E-486C-A01A-787E18E15BB8}"/>
-    <hyperlink ref="D451" r:id="rId656" xr:uid="{4EA15547-0D13-4CA2-B57B-A877A2570711}"/>
-    <hyperlink ref="D452" r:id="rId657" xr:uid="{783A3DD1-4AF0-45A8-961C-4A2ECCFBC4D5}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D56" r:id="rId54"/>
+    <hyperlink ref="D57" r:id="rId55"/>
+    <hyperlink ref="D58" r:id="rId56"/>
+    <hyperlink ref="D59" r:id="rId57"/>
+    <hyperlink ref="D81" r:id="rId58"/>
+    <hyperlink ref="D82" r:id="rId59"/>
+    <hyperlink ref="D83" r:id="rId60"/>
+    <hyperlink ref="D84" r:id="rId61"/>
+    <hyperlink ref="D85" r:id="rId62"/>
+    <hyperlink ref="D86" r:id="rId63"/>
+    <hyperlink ref="D87" r:id="rId64"/>
+    <hyperlink ref="D88" r:id="rId65"/>
+    <hyperlink ref="D89" r:id="rId66"/>
+    <hyperlink ref="D90" r:id="rId67"/>
+    <hyperlink ref="D91" r:id="rId68"/>
+    <hyperlink ref="D92" r:id="rId69"/>
+    <hyperlink ref="D93" r:id="rId70"/>
+    <hyperlink ref="D94" r:id="rId71"/>
+    <hyperlink ref="D95" r:id="rId72"/>
+    <hyperlink ref="D96" r:id="rId73"/>
+    <hyperlink ref="D97" r:id="rId74"/>
+    <hyperlink ref="D98" r:id="rId75"/>
+    <hyperlink ref="D99" r:id="rId76"/>
+    <hyperlink ref="D100" r:id="rId77"/>
+    <hyperlink ref="D101" r:id="rId78"/>
+    <hyperlink ref="D102" r:id="rId79"/>
+    <hyperlink ref="D103" r:id="rId80"/>
+    <hyperlink ref="D104" r:id="rId81"/>
+    <hyperlink ref="D105" r:id="rId82"/>
+    <hyperlink ref="D106" r:id="rId83"/>
+    <hyperlink ref="D107" r:id="rId84"/>
+    <hyperlink ref="D108" r:id="rId85"/>
+    <hyperlink ref="D109" r:id="rId86"/>
+    <hyperlink ref="D110" r:id="rId87"/>
+    <hyperlink ref="D111" r:id="rId88"/>
+    <hyperlink ref="D112" r:id="rId89"/>
+    <hyperlink ref="D115" r:id="rId90" location="menuscroll"/>
+    <hyperlink ref="D116" r:id="rId91" location="menuscroll"/>
+    <hyperlink ref="D117" r:id="rId92"/>
+    <hyperlink ref="D118" r:id="rId93"/>
+    <hyperlink ref="D119" r:id="rId94"/>
+    <hyperlink ref="D120" r:id="rId95"/>
+    <hyperlink ref="D123" r:id="rId96"/>
+    <hyperlink ref="D124" r:id="rId97"/>
+    <hyperlink ref="D125" r:id="rId98"/>
+    <hyperlink ref="D126" r:id="rId99"/>
+    <hyperlink ref="D127" r:id="rId100"/>
+    <hyperlink ref="D128" r:id="rId101"/>
+    <hyperlink ref="D129" r:id="rId102"/>
+    <hyperlink ref="D130" r:id="rId103"/>
+    <hyperlink ref="D131" r:id="rId104"/>
+    <hyperlink ref="D132" r:id="rId105" location="tresc_main"/>
+    <hyperlink ref="D133" r:id="rId106" location="tresc_main"/>
+    <hyperlink ref="D134" r:id="rId107"/>
+    <hyperlink ref="D135" r:id="rId108"/>
+    <hyperlink ref="D136" r:id="rId109"/>
+    <hyperlink ref="D137" r:id="rId110"/>
+    <hyperlink ref="D138" r:id="rId111"/>
+    <hyperlink ref="D139" r:id="rId112"/>
+    <hyperlink ref="D140" r:id="rId113"/>
+    <hyperlink ref="D141" r:id="rId114"/>
+    <hyperlink ref="D143" r:id="rId115"/>
+    <hyperlink ref="D142" r:id="rId116"/>
+    <hyperlink ref="D144" r:id="rId117"/>
+    <hyperlink ref="D145" r:id="rId118"/>
+    <hyperlink ref="D146" r:id="rId119"/>
+    <hyperlink ref="D147" r:id="rId120"/>
+    <hyperlink ref="D148" r:id="rId121"/>
+    <hyperlink ref="D149" r:id="rId122"/>
+    <hyperlink ref="D150" r:id="rId123"/>
+    <hyperlink ref="D152" r:id="rId124"/>
+    <hyperlink ref="D151" r:id="rId125"/>
+    <hyperlink ref="D153" r:id="rId126"/>
+    <hyperlink ref="D156" r:id="rId127"/>
+    <hyperlink ref="D157" r:id="rId128"/>
+    <hyperlink ref="D158" r:id="rId129"/>
+    <hyperlink ref="D159" r:id="rId130"/>
+    <hyperlink ref="D160" r:id="rId131"/>
+    <hyperlink ref="D161" r:id="rId132"/>
+    <hyperlink ref="D162" r:id="rId133"/>
+    <hyperlink ref="D163" r:id="rId134"/>
+    <hyperlink ref="D164" r:id="rId135"/>
+    <hyperlink ref="D165" r:id="rId136"/>
+    <hyperlink ref="D166" r:id="rId137"/>
+    <hyperlink ref="D167" r:id="rId138"/>
+    <hyperlink ref="D168" r:id="rId139"/>
+    <hyperlink ref="D169" r:id="rId140"/>
+    <hyperlink ref="D170" r:id="rId141"/>
+    <hyperlink ref="D171" r:id="rId142"/>
+    <hyperlink ref="D172" r:id="rId143"/>
+    <hyperlink ref="D173" r:id="rId144"/>
+    <hyperlink ref="D174" r:id="rId145"/>
+    <hyperlink ref="D175" r:id="rId146"/>
+    <hyperlink ref="D176" r:id="rId147"/>
+    <hyperlink ref="D177" r:id="rId148"/>
+    <hyperlink ref="D178" r:id="rId149"/>
+    <hyperlink ref="D179" r:id="rId150"/>
+    <hyperlink ref="D180" r:id="rId151"/>
+    <hyperlink ref="D181" r:id="rId152"/>
+    <hyperlink ref="D182" r:id="rId153"/>
+    <hyperlink ref="D183" r:id="rId154"/>
+    <hyperlink ref="D184" r:id="rId155"/>
+    <hyperlink ref="D185" r:id="rId156"/>
+    <hyperlink ref="D186" r:id="rId157"/>
+    <hyperlink ref="D187" r:id="rId158"/>
+    <hyperlink ref="D188" r:id="rId159"/>
+    <hyperlink ref="D189" r:id="rId160"/>
+    <hyperlink ref="D194" r:id="rId161"/>
+    <hyperlink ref="D195" r:id="rId162"/>
+    <hyperlink ref="D196" r:id="rId163"/>
+    <hyperlink ref="D197" r:id="rId164"/>
+    <hyperlink ref="D198" r:id="rId165"/>
+    <hyperlink ref="D199" r:id="rId166"/>
+    <hyperlink ref="D200" r:id="rId167"/>
+    <hyperlink ref="D201" r:id="rId168"/>
+    <hyperlink ref="D202" r:id="rId169"/>
+    <hyperlink ref="D203" r:id="rId170"/>
+    <hyperlink ref="D204" r:id="rId171"/>
+    <hyperlink ref="D205" r:id="rId172"/>
+    <hyperlink ref="D206" r:id="rId173"/>
+    <hyperlink ref="D207" r:id="rId174"/>
+    <hyperlink ref="D208" r:id="rId175"/>
+    <hyperlink ref="D209" r:id="rId176"/>
+    <hyperlink ref="D210" r:id="rId177"/>
+    <hyperlink ref="D211" r:id="rId178"/>
+    <hyperlink ref="D212" r:id="rId179"/>
+    <hyperlink ref="D213" r:id="rId180"/>
+    <hyperlink ref="D214" r:id="rId181"/>
+    <hyperlink ref="D215" r:id="rId182"/>
+    <hyperlink ref="D216" r:id="rId183"/>
+    <hyperlink ref="D217" r:id="rId184"/>
+    <hyperlink ref="D218" r:id="rId185"/>
+    <hyperlink ref="D219" r:id="rId186"/>
+    <hyperlink ref="D220" r:id="rId187"/>
+    <hyperlink ref="D221" r:id="rId188"/>
+    <hyperlink ref="D222" r:id="rId189"/>
+    <hyperlink ref="D223" r:id="rId190"/>
+    <hyperlink ref="D224" r:id="rId191"/>
+    <hyperlink ref="D226" r:id="rId192"/>
+    <hyperlink ref="D227" r:id="rId193"/>
+    <hyperlink ref="D228" r:id="rId194"/>
+    <hyperlink ref="D229" r:id="rId195"/>
+    <hyperlink ref="D230" r:id="rId196"/>
+    <hyperlink ref="D231" r:id="rId197"/>
+    <hyperlink ref="D232" r:id="rId198"/>
+    <hyperlink ref="D233" r:id="rId199"/>
+    <hyperlink ref="D234" r:id="rId200"/>
+    <hyperlink ref="D235" r:id="rId201"/>
+    <hyperlink ref="D237" r:id="rId202"/>
+    <hyperlink ref="D238" r:id="rId203"/>
+    <hyperlink ref="D239" r:id="rId204"/>
+    <hyperlink ref="D240" r:id="rId205"/>
+    <hyperlink ref="D241" r:id="rId206"/>
+    <hyperlink ref="D242" r:id="rId207"/>
+    <hyperlink ref="D243" r:id="rId208"/>
+    <hyperlink ref="D244" r:id="rId209"/>
+    <hyperlink ref="D245" r:id="rId210"/>
+    <hyperlink ref="D246" r:id="rId211"/>
+    <hyperlink ref="D247" r:id="rId212"/>
+    <hyperlink ref="D261" r:id="rId213"/>
+    <hyperlink ref="D248" r:id="rId214"/>
+    <hyperlink ref="D249" r:id="rId215"/>
+    <hyperlink ref="D250" r:id="rId216"/>
+    <hyperlink ref="D251" r:id="rId217"/>
+    <hyperlink ref="D252" r:id="rId218"/>
+    <hyperlink ref="D253" r:id="rId219"/>
+    <hyperlink ref="D254" r:id="rId220"/>
+    <hyperlink ref="D255" r:id="rId221"/>
+    <hyperlink ref="D257" r:id="rId222"/>
+    <hyperlink ref="D258" r:id="rId223"/>
+    <hyperlink ref="D259" r:id="rId224"/>
+    <hyperlink ref="D260" r:id="rId225"/>
+    <hyperlink ref="D262" r:id="rId226"/>
+    <hyperlink ref="D417" r:id="rId227"/>
+    <hyperlink ref="D418" r:id="rId228"/>
+    <hyperlink ref="D441" r:id="rId229"/>
+    <hyperlink ref="D263" r:id="rId230"/>
+    <hyperlink ref="D264" r:id="rId231"/>
+    <hyperlink ref="D265" r:id="rId232"/>
+    <hyperlink ref="D266" r:id="rId233"/>
+    <hyperlink ref="D267" r:id="rId234"/>
+    <hyperlink ref="D268" r:id="rId235"/>
+    <hyperlink ref="D269" r:id="rId236"/>
+    <hyperlink ref="D270" r:id="rId237"/>
+    <hyperlink ref="D271" r:id="rId238"/>
+    <hyperlink ref="D272" r:id="rId239"/>
+    <hyperlink ref="D273" r:id="rId240"/>
+    <hyperlink ref="D274" r:id="rId241"/>
+    <hyperlink ref="D275" r:id="rId242"/>
+    <hyperlink ref="D276" r:id="rId243"/>
+    <hyperlink ref="D277" r:id="rId244"/>
+    <hyperlink ref="D278" r:id="rId245"/>
+    <hyperlink ref="D279" r:id="rId246"/>
+    <hyperlink ref="D281" r:id="rId247"/>
+    <hyperlink ref="D280" r:id="rId248"/>
+    <hyperlink ref="D282" r:id="rId249"/>
+    <hyperlink ref="D283" r:id="rId250"/>
+    <hyperlink ref="D284" r:id="rId251"/>
+    <hyperlink ref="D285" r:id="rId252"/>
+    <hyperlink ref="D286" r:id="rId253"/>
+    <hyperlink ref="D287" r:id="rId254"/>
+    <hyperlink ref="D288" r:id="rId255"/>
+    <hyperlink ref="D289" r:id="rId256"/>
+    <hyperlink ref="D290" r:id="rId257"/>
+    <hyperlink ref="D291" r:id="rId258"/>
+    <hyperlink ref="D61" r:id="rId259"/>
+    <hyperlink ref="D65" r:id="rId260"/>
+    <hyperlink ref="D71" r:id="rId261"/>
+    <hyperlink ref="D72" r:id="rId262"/>
+    <hyperlink ref="D73" r:id="rId263"/>
+    <hyperlink ref="D78" r:id="rId264"/>
+    <hyperlink ref="D80" r:id="rId265"/>
+    <hyperlink ref="D74" r:id="rId266"/>
+    <hyperlink ref="D154" r:id="rId267"/>
+    <hyperlink ref="D155" r:id="rId268"/>
+    <hyperlink ref="D190" r:id="rId269"/>
+    <hyperlink ref="D225" r:id="rId270"/>
+    <hyperlink ref="D256" r:id="rId271"/>
+    <hyperlink ref="D62" r:id="rId272"/>
+    <hyperlink ref="D63" r:id="rId273"/>
+    <hyperlink ref="D64" r:id="rId274"/>
+    <hyperlink ref="I4" r:id="rId275"/>
+    <hyperlink ref="I13" r:id="rId276"/>
+    <hyperlink ref="I22" r:id="rId277"/>
+    <hyperlink ref="I23" r:id="rId278"/>
+    <hyperlink ref="I24" r:id="rId279"/>
+    <hyperlink ref="I25" r:id="rId280"/>
+    <hyperlink ref="I26" r:id="rId281"/>
+    <hyperlink ref="I30" r:id="rId282"/>
+    <hyperlink ref="I10" r:id="rId283"/>
+    <hyperlink ref="I9" r:id="rId284"/>
+    <hyperlink ref="I8" r:id="rId285"/>
+    <hyperlink ref="I31" r:id="rId286"/>
+    <hyperlink ref="I32" r:id="rId287"/>
+    <hyperlink ref="I33" r:id="rId288"/>
+    <hyperlink ref="I34" r:id="rId289"/>
+    <hyperlink ref="I35" r:id="rId290"/>
+    <hyperlink ref="I36" r:id="rId291"/>
+    <hyperlink ref="I38" r:id="rId292"/>
+    <hyperlink ref="I39:I40" r:id="rId293" display="https://glogow.bip.info.pl/"/>
+    <hyperlink ref="I15" r:id="rId294"/>
+    <hyperlink ref="I16" r:id="rId295"/>
+    <hyperlink ref="I17" r:id="rId296"/>
+    <hyperlink ref="I48" r:id="rId297"/>
+    <hyperlink ref="I49" r:id="rId298"/>
+    <hyperlink ref="I50" r:id="rId299"/>
+    <hyperlink ref="I51" r:id="rId300" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I52" r:id="rId301" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I53" r:id="rId302" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I54" r:id="rId303" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I55" r:id="rId304" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I56" r:id="rId305" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I57" r:id="rId306" display="http://bip.zukowice.pl/"/>
+    <hyperlink ref="I61" r:id="rId307" display="http://bip.wasosz.eu/"/>
+    <hyperlink ref="I62" r:id="rId308" display="http://bip.wasosz.eu/"/>
+    <hyperlink ref="I64" r:id="rId309" display="http://bip.wasosz.eu/"/>
+    <hyperlink ref="I63" r:id="rId310" display="http://bip.wasosz.eu/"/>
+    <hyperlink ref="D69" r:id="rId311"/>
+    <hyperlink ref="I69" r:id="rId312"/>
+    <hyperlink ref="I70" r:id="rId313"/>
+    <hyperlink ref="I71" r:id="rId314" display="https://glogow.bip.info.pl/"/>
+    <hyperlink ref="I73" r:id="rId315"/>
+    <hyperlink ref="I74" r:id="rId316" display="http://www.bip.mecinka.pl/"/>
+    <hyperlink ref="I75" r:id="rId317" display="http://www.bip.mecinka.pl/"/>
+    <hyperlink ref="D76" r:id="rId318"/>
+    <hyperlink ref="D77" r:id="rId319"/>
+    <hyperlink ref="I77" r:id="rId320"/>
+    <hyperlink ref="I78" r:id="rId321"/>
+    <hyperlink ref="D79" r:id="rId322"/>
+    <hyperlink ref="I79" r:id="rId323"/>
+    <hyperlink ref="I82" r:id="rId324" display="https://glogow.bip.info.pl/"/>
+    <hyperlink ref="I85" r:id="rId325"/>
+    <hyperlink ref="I86" r:id="rId326"/>
+    <hyperlink ref="I87" r:id="rId327"/>
+    <hyperlink ref="I88" r:id="rId328"/>
+    <hyperlink ref="I92" r:id="rId329"/>
+    <hyperlink ref="I93" r:id="rId330"/>
+    <hyperlink ref="I94" r:id="rId331"/>
+    <hyperlink ref="I95" r:id="rId332"/>
+    <hyperlink ref="I91" r:id="rId333"/>
+    <hyperlink ref="I96" r:id="rId334"/>
+    <hyperlink ref="I97" r:id="rId335"/>
+    <hyperlink ref="I98" r:id="rId336"/>
+    <hyperlink ref="I99" r:id="rId337"/>
+    <hyperlink ref="I100" r:id="rId338"/>
+    <hyperlink ref="I101" r:id="rId339"/>
+    <hyperlink ref="I102" r:id="rId340"/>
+    <hyperlink ref="I103" r:id="rId341"/>
+    <hyperlink ref="I104" r:id="rId342"/>
+    <hyperlink ref="I105" r:id="rId343"/>
+    <hyperlink ref="I106" r:id="rId344"/>
+    <hyperlink ref="I107" r:id="rId345"/>
+    <hyperlink ref="I108" r:id="rId346" display="https://ugburzenin.pl/"/>
+    <hyperlink ref="I109" r:id="rId347" display="https://ugburzenin.pl/"/>
+    <hyperlink ref="I112" r:id="rId348" display="https://www.umsieradz.finn.pl/"/>
+    <hyperlink ref="D113" r:id="rId349"/>
+    <hyperlink ref="D114" r:id="rId350"/>
+    <hyperlink ref="I113" r:id="rId351"/>
+    <hyperlink ref="I114" r:id="rId352" display="https://www.brzeznio.finn.pl/"/>
+    <hyperlink ref="I115" r:id="rId353" display="http://bip.gminakg.pl/"/>
+    <hyperlink ref="I116" r:id="rId354" display="http://bip.gminakg.pl/"/>
+    <hyperlink ref="D121" r:id="rId355"/>
+    <hyperlink ref="D122" r:id="rId356"/>
+    <hyperlink ref="I121" r:id="rId357" display="http://www.bip.marciszow.pl/"/>
+    <hyperlink ref="I122" r:id="rId358" display="http://www.bip.marciszow.pl/"/>
+    <hyperlink ref="I123" r:id="rId359"/>
+    <hyperlink ref="I124" r:id="rId360"/>
+    <hyperlink ref="I125" r:id="rId361"/>
+    <hyperlink ref="I126" r:id="rId362"/>
+    <hyperlink ref="I127" r:id="rId363"/>
+    <hyperlink ref="I128" r:id="rId364"/>
+    <hyperlink ref="I130" r:id="rId365"/>
+    <hyperlink ref="I131" r:id="rId366"/>
+    <hyperlink ref="I132" r:id="rId367"/>
+    <hyperlink ref="I133" r:id="rId368"/>
+    <hyperlink ref="I134" r:id="rId369" display="http://bip.lewin-klodzki.pl/"/>
+    <hyperlink ref="I135" r:id="rId370" display="http://bip.lewin-klodzki.pl/"/>
+    <hyperlink ref="I136" r:id="rId371"/>
+    <hyperlink ref="I137" r:id="rId372"/>
+    <hyperlink ref="I138" r:id="rId373"/>
+    <hyperlink ref="I139" r:id="rId374"/>
+    <hyperlink ref="I140" r:id="rId375"/>
+    <hyperlink ref="I141" r:id="rId376"/>
+    <hyperlink ref="I142" r:id="rId377"/>
+    <hyperlink ref="I147" r:id="rId378"/>
+    <hyperlink ref="I148" r:id="rId379"/>
+    <hyperlink ref="I151" r:id="rId380" display="http://www.bip.krotoszyce.pl/"/>
+    <hyperlink ref="I152" r:id="rId381"/>
+    <hyperlink ref="I154" r:id="rId382" display="http://www.bip.legnickiepole.pl/"/>
+    <hyperlink ref="I155" r:id="rId383" display="http://www.bip.legnickiepole.pl/"/>
+    <hyperlink ref="I156" r:id="rId384"/>
+    <hyperlink ref="I167" r:id="rId385" display="http://www.bip.ruja.pl/"/>
+    <hyperlink ref="I168" r:id="rId386"/>
+    <hyperlink ref="I169" r:id="rId387"/>
+    <hyperlink ref="D191" r:id="rId388"/>
+    <hyperlink ref="D192" r:id="rId389"/>
+    <hyperlink ref="D193" r:id="rId390"/>
+    <hyperlink ref="I194" r:id="rId391"/>
+    <hyperlink ref="I195" r:id="rId392"/>
+    <hyperlink ref="I196" r:id="rId393"/>
+    <hyperlink ref="I197" r:id="rId394"/>
+    <hyperlink ref="I198" r:id="rId395"/>
+    <hyperlink ref="I199" r:id="rId396"/>
+    <hyperlink ref="I200" r:id="rId397"/>
+    <hyperlink ref="I201" r:id="rId398"/>
+    <hyperlink ref="I202" r:id="rId399"/>
+    <hyperlink ref="I203" r:id="rId400"/>
+    <hyperlink ref="I179" r:id="rId401" display="http://bip.ugluban.nv.pl/"/>
+    <hyperlink ref="I180" r:id="rId402" display="http://bip.ugluban.nv.pl/"/>
+    <hyperlink ref="I217" r:id="rId403"/>
+    <hyperlink ref="I218" r:id="rId404"/>
+    <hyperlink ref="I219" r:id="rId405" display="https://idumolesnica.bip.gov.pl/"/>
+    <hyperlink ref="I221" r:id="rId406"/>
+    <hyperlink ref="I222" r:id="rId407"/>
+    <hyperlink ref="I223" r:id="rId408"/>
+    <hyperlink ref="I224" r:id="rId409"/>
+    <hyperlink ref="I226" r:id="rId410"/>
+    <hyperlink ref="I228" r:id="rId411"/>
+    <hyperlink ref="I229" r:id="rId412"/>
+    <hyperlink ref="I230" r:id="rId413"/>
+    <hyperlink ref="I231" r:id="rId414"/>
+    <hyperlink ref="I232" r:id="rId415"/>
+    <hyperlink ref="D236" r:id="rId416"/>
+    <hyperlink ref="I237" r:id="rId417"/>
+    <hyperlink ref="I238" r:id="rId418"/>
+    <hyperlink ref="I247" r:id="rId419"/>
+    <hyperlink ref="I255" r:id="rId420"/>
+    <hyperlink ref="I256" r:id="rId421"/>
+    <hyperlink ref="I257" r:id="rId422"/>
+    <hyperlink ref="I41" r:id="rId423"/>
+    <hyperlink ref="I14" r:id="rId424"/>
+    <hyperlink ref="I259" r:id="rId425" display="http://bip.gaworzyce.com.pl/"/>
+    <hyperlink ref="I260" r:id="rId426" display="http://bip.gaworzyce.com.pl/"/>
+    <hyperlink ref="I261" r:id="rId427" display="http://bip.gaworzyce.com.pl/"/>
+    <hyperlink ref="I262" r:id="rId428" display="http://bip.gaworzyce.com.pl/"/>
+    <hyperlink ref="I263" r:id="rId429" display="http://bip.radwanice.pl/"/>
+    <hyperlink ref="I264" r:id="rId430" display="http://bip.radwanice.pl/"/>
+    <hyperlink ref="I265" r:id="rId431"/>
+    <hyperlink ref="I266" r:id="rId432" display="https://bip.gmstrzelin.finn.pl/"/>
+    <hyperlink ref="I267" r:id="rId433" display="https://bip.gmstrzelin.finn.pl/"/>
+    <hyperlink ref="I270" r:id="rId434"/>
+    <hyperlink ref="I271" r:id="rId435" display="http://kondratowice.biuletyn.net/"/>
+    <hyperlink ref="I272" r:id="rId436" display="http://kondratowice.biuletyn.net/"/>
+    <hyperlink ref="I273" r:id="rId437" display="http://kondratowice.biuletyn.net/"/>
+    <hyperlink ref="I279" r:id="rId438" display="http://bip.malczyce.wroc.pl/"/>
+    <hyperlink ref="I284" r:id="rId439"/>
+    <hyperlink ref="I285" r:id="rId440"/>
+    <hyperlink ref="I286" r:id="rId441"/>
+    <hyperlink ref="I287" r:id="rId442"/>
+    <hyperlink ref="D292" r:id="rId443"/>
+    <hyperlink ref="D293" r:id="rId444"/>
+    <hyperlink ref="D294" r:id="rId445"/>
+    <hyperlink ref="D295" r:id="rId446"/>
+    <hyperlink ref="D296" r:id="rId447"/>
+    <hyperlink ref="D297" r:id="rId448"/>
+    <hyperlink ref="D298" r:id="rId449"/>
+    <hyperlink ref="D301" r:id="rId450"/>
+    <hyperlink ref="D302" r:id="rId451"/>
+    <hyperlink ref="D303" r:id="rId452"/>
+    <hyperlink ref="D304" r:id="rId453"/>
+    <hyperlink ref="D305" r:id="rId454"/>
+    <hyperlink ref="D306" r:id="rId455"/>
+    <hyperlink ref="D307" r:id="rId456"/>
+    <hyperlink ref="D308" r:id="rId457"/>
+    <hyperlink ref="D309" r:id="rId458"/>
+    <hyperlink ref="D311" r:id="rId459"/>
+    <hyperlink ref="D310" r:id="rId460"/>
+    <hyperlink ref="D312" r:id="rId461"/>
+    <hyperlink ref="D313" r:id="rId462"/>
+    <hyperlink ref="D314" r:id="rId463"/>
+    <hyperlink ref="D315" r:id="rId464"/>
+    <hyperlink ref="D316" r:id="rId465"/>
+    <hyperlink ref="D317" r:id="rId466"/>
+    <hyperlink ref="D318" r:id="rId467"/>
+    <hyperlink ref="D319" r:id="rId468"/>
+    <hyperlink ref="D320" r:id="rId469"/>
+    <hyperlink ref="D321" r:id="rId470"/>
+    <hyperlink ref="D322" r:id="rId471"/>
+    <hyperlink ref="D323" r:id="rId472"/>
+    <hyperlink ref="D324" r:id="rId473"/>
+    <hyperlink ref="D325" r:id="rId474"/>
+    <hyperlink ref="D326" r:id="rId475"/>
+    <hyperlink ref="D327" r:id="rId476"/>
+    <hyperlink ref="D328" r:id="rId477"/>
+    <hyperlink ref="D329" r:id="rId478"/>
+    <hyperlink ref="D330" r:id="rId479"/>
+    <hyperlink ref="D331" r:id="rId480"/>
+    <hyperlink ref="D332" r:id="rId481"/>
+    <hyperlink ref="D333" r:id="rId482"/>
+    <hyperlink ref="D334" r:id="rId483"/>
+    <hyperlink ref="D335" r:id="rId484"/>
+    <hyperlink ref="D336" r:id="rId485"/>
+    <hyperlink ref="D337" r:id="rId486"/>
+    <hyperlink ref="D338" r:id="rId487"/>
+    <hyperlink ref="D339" r:id="rId488"/>
+    <hyperlink ref="D340" r:id="rId489"/>
+    <hyperlink ref="D341" r:id="rId490"/>
+    <hyperlink ref="D342" r:id="rId491"/>
+    <hyperlink ref="D343" r:id="rId492"/>
+    <hyperlink ref="D344" r:id="rId493"/>
+    <hyperlink ref="D345" r:id="rId494"/>
+    <hyperlink ref="D346" r:id="rId495"/>
+    <hyperlink ref="D347" r:id="rId496"/>
+    <hyperlink ref="D348" r:id="rId497"/>
+    <hyperlink ref="D349" r:id="rId498"/>
+    <hyperlink ref="D350" r:id="rId499"/>
+    <hyperlink ref="D351" r:id="rId500"/>
+    <hyperlink ref="D352" r:id="rId501"/>
+    <hyperlink ref="I292" r:id="rId502"/>
+    <hyperlink ref="I294" r:id="rId503"/>
+    <hyperlink ref="I295" r:id="rId504"/>
+    <hyperlink ref="I299" r:id="rId505"/>
+    <hyperlink ref="D299" r:id="rId506"/>
+    <hyperlink ref="D300" r:id="rId507"/>
+    <hyperlink ref="I300" r:id="rId508"/>
+    <hyperlink ref="I301" r:id="rId509"/>
+    <hyperlink ref="I302" r:id="rId510"/>
+    <hyperlink ref="I303" r:id="rId511"/>
+    <hyperlink ref="I322" r:id="rId512" display="http://bip.oborniki-slaskie.pl/"/>
+    <hyperlink ref="I323" r:id="rId513" display="http://bip.oborniki-slaskie.pl/"/>
+    <hyperlink ref="I324" r:id="rId514" display="http://bip.oborniki-slaskie.pl/"/>
+    <hyperlink ref="I325" r:id="rId515" display="http://bip.oborniki-slaskie.pl/"/>
+    <hyperlink ref="I328" r:id="rId516"/>
+    <hyperlink ref="I330" r:id="rId517"/>
+    <hyperlink ref="I333" r:id="rId518"/>
+    <hyperlink ref="I334:I352" r:id="rId519" display="https://zmigrod.ibip.wroc.pl/public/"/>
+    <hyperlink ref="D353" r:id="rId520"/>
+    <hyperlink ref="D354" r:id="rId521"/>
+    <hyperlink ref="D355" r:id="rId522"/>
+    <hyperlink ref="D356" r:id="rId523"/>
+    <hyperlink ref="D357" r:id="rId524"/>
+    <hyperlink ref="D358" r:id="rId525"/>
+    <hyperlink ref="D359" r:id="rId526"/>
+    <hyperlink ref="D360" r:id="rId527"/>
+    <hyperlink ref="I359" r:id="rId528"/>
+    <hyperlink ref="I360" r:id="rId529"/>
+    <hyperlink ref="D361" r:id="rId530"/>
+    <hyperlink ref="D362" r:id="rId531"/>
+    <hyperlink ref="D363" r:id="rId532"/>
+    <hyperlink ref="D364" r:id="rId533"/>
+    <hyperlink ref="D365" r:id="rId534"/>
+    <hyperlink ref="D366" r:id="rId535"/>
+    <hyperlink ref="D367" r:id="rId536"/>
+    <hyperlink ref="I367" r:id="rId537"/>
+    <hyperlink ref="I364" r:id="rId538" display="http://bip.boguszow-gorce.pl/"/>
+    <hyperlink ref="I365" r:id="rId539" display="http://bip.boguszow-gorce.pl/"/>
+    <hyperlink ref="D368" r:id="rId540"/>
+    <hyperlink ref="I42" r:id="rId541"/>
+    <hyperlink ref="I47" r:id="rId542" display="http://www.bip.kotla.pl/"/>
+    <hyperlink ref="I72" r:id="rId543"/>
+    <hyperlink ref="I143" r:id="rId544"/>
+    <hyperlink ref="I144" r:id="rId545"/>
+    <hyperlink ref="I146" r:id="rId546"/>
+    <hyperlink ref="I171" r:id="rId547"/>
+    <hyperlink ref="I234" r:id="rId548"/>
+    <hyperlink ref="I274" r:id="rId549"/>
+    <hyperlink ref="D369" r:id="rId550"/>
+    <hyperlink ref="D370" r:id="rId551"/>
+    <hyperlink ref="D371" r:id="rId552"/>
+    <hyperlink ref="D372" r:id="rId553"/>
+    <hyperlink ref="I371" r:id="rId554" display="https://bip.mieroszow.pl/"/>
+    <hyperlink ref="I372" r:id="rId555" display="https://bip.mieroszow.pl/"/>
+    <hyperlink ref="D373" r:id="rId556"/>
+    <hyperlink ref="D374" r:id="rId557"/>
+    <hyperlink ref="D375" r:id="rId558"/>
+    <hyperlink ref="D376" r:id="rId559"/>
+    <hyperlink ref="I373" r:id="rId560"/>
+    <hyperlink ref="I374" r:id="rId561"/>
+    <hyperlink ref="I375" r:id="rId562"/>
+    <hyperlink ref="I376" r:id="rId563"/>
+    <hyperlink ref="D377" r:id="rId564"/>
+    <hyperlink ref="D378" r:id="rId565"/>
+    <hyperlink ref="I377" r:id="rId566"/>
+    <hyperlink ref="I378" r:id="rId567"/>
+    <hyperlink ref="D379" r:id="rId568"/>
+    <hyperlink ref="I379" r:id="rId569"/>
+    <hyperlink ref="D380" r:id="rId570"/>
+    <hyperlink ref="I380" r:id="rId571"/>
+    <hyperlink ref="D381" r:id="rId572"/>
+    <hyperlink ref="I381" r:id="rId573" display="http://bip.wolow.pl/"/>
+    <hyperlink ref="I382" r:id="rId574" display="http://bip.wolow.pl/"/>
+    <hyperlink ref="I383" r:id="rId575" display="http://bip.wolow.pl/"/>
+    <hyperlink ref="D382" r:id="rId576"/>
+    <hyperlink ref="D383" r:id="rId577"/>
+    <hyperlink ref="D384" r:id="rId578"/>
+    <hyperlink ref="I384" r:id="rId579"/>
+    <hyperlink ref="D385" r:id="rId580"/>
+    <hyperlink ref="D386" r:id="rId581"/>
+    <hyperlink ref="D387" r:id="rId582"/>
+    <hyperlink ref="I385" r:id="rId583"/>
+    <hyperlink ref="I386" r:id="rId584"/>
+    <hyperlink ref="I387" r:id="rId585"/>
+    <hyperlink ref="D388" r:id="rId586"/>
+    <hyperlink ref="D389" r:id="rId587"/>
+    <hyperlink ref="I389" r:id="rId588" display="http://bip.katywroclawskie.pl/"/>
+    <hyperlink ref="D390" r:id="rId589"/>
+    <hyperlink ref="D392" r:id="rId590"/>
+    <hyperlink ref="D391" r:id="rId591"/>
+    <hyperlink ref="I390" r:id="rId592"/>
+    <hyperlink ref="I392" r:id="rId593"/>
+    <hyperlink ref="D393" r:id="rId594"/>
+    <hyperlink ref="I393" r:id="rId595" display="https://bip.sobotka.pl/"/>
+    <hyperlink ref="D394" r:id="rId596"/>
+    <hyperlink ref="I394" r:id="rId597" display="https://bip.sobotka.pl/"/>
+    <hyperlink ref="D395" r:id="rId598"/>
+    <hyperlink ref="D396" r:id="rId599"/>
+    <hyperlink ref="D397" r:id="rId600"/>
+    <hyperlink ref="I396" r:id="rId601"/>
+    <hyperlink ref="I397" r:id="rId602"/>
+    <hyperlink ref="D398" r:id="rId603"/>
+    <hyperlink ref="D399" r:id="rId604"/>
+    <hyperlink ref="D400" r:id="rId605"/>
+    <hyperlink ref="I398" r:id="rId606"/>
+    <hyperlink ref="I399" r:id="rId607"/>
+    <hyperlink ref="I400" r:id="rId608"/>
+    <hyperlink ref="D401" r:id="rId609"/>
+    <hyperlink ref="D402" r:id="rId610"/>
+    <hyperlink ref="D403" r:id="rId611"/>
+    <hyperlink ref="I403" r:id="rId612"/>
+    <hyperlink ref="D404" r:id="rId613"/>
+    <hyperlink ref="D405" r:id="rId614"/>
+    <hyperlink ref="D406" r:id="rId615"/>
+    <hyperlink ref="D407" r:id="rId616"/>
+    <hyperlink ref="D408" r:id="rId617"/>
+    <hyperlink ref="D409" r:id="rId618"/>
+    <hyperlink ref="D410" r:id="rId619"/>
+    <hyperlink ref="D411" r:id="rId620"/>
+    <hyperlink ref="D412" r:id="rId621"/>
+    <hyperlink ref="D413" r:id="rId622"/>
+    <hyperlink ref="D414" r:id="rId623"/>
+    <hyperlink ref="D415" r:id="rId624"/>
+    <hyperlink ref="D419" r:id="rId625"/>
+    <hyperlink ref="D420" r:id="rId626"/>
+    <hyperlink ref="D421" r:id="rId627"/>
+    <hyperlink ref="D422" r:id="rId628"/>
+    <hyperlink ref="D423" r:id="rId629"/>
+    <hyperlink ref="D424" r:id="rId630"/>
+    <hyperlink ref="D425" r:id="rId631"/>
+    <hyperlink ref="D426" r:id="rId632"/>
+    <hyperlink ref="D427" r:id="rId633"/>
+    <hyperlink ref="D428" r:id="rId634"/>
+    <hyperlink ref="D429" r:id="rId635"/>
+    <hyperlink ref="D430" r:id="rId636"/>
+    <hyperlink ref="D431" r:id="rId637"/>
+    <hyperlink ref="D432" r:id="rId638"/>
+    <hyperlink ref="D433" r:id="rId639"/>
+    <hyperlink ref="D434" r:id="rId640"/>
+    <hyperlink ref="D435" r:id="rId641"/>
+    <hyperlink ref="D436" r:id="rId642"/>
+    <hyperlink ref="D437" r:id="rId643"/>
+    <hyperlink ref="D438" r:id="rId644"/>
+    <hyperlink ref="D439" r:id="rId645"/>
+    <hyperlink ref="D440" r:id="rId646"/>
+    <hyperlink ref="D442" r:id="rId647"/>
+    <hyperlink ref="D443" r:id="rId648"/>
+    <hyperlink ref="D444" r:id="rId649"/>
+    <hyperlink ref="D445" r:id="rId650"/>
+    <hyperlink ref="D446" r:id="rId651"/>
+    <hyperlink ref="D447" r:id="rId652"/>
+    <hyperlink ref="D448" r:id="rId653"/>
+    <hyperlink ref="D449" r:id="rId654"/>
+    <hyperlink ref="D450" r:id="rId655"/>
+    <hyperlink ref="D451" r:id="rId656"/>
+    <hyperlink ref="D452" r:id="rId657"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId658"/>
